--- a/Documentação/Planilhas/Conferencia_DOM_SD.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM_SD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="32" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="1024">
   <si>
     <t>DESCR</t>
   </si>
@@ -2772,12 +2772,387 @@
   <si>
     <t>dbo.stg_dom_adquirente</t>
   </si>
+  <si>
+    <t>CD_ADQUIRENTE_LN</t>
+  </si>
+  <si>
+    <t>CD_ADQUIRENTE_FRONT</t>
+  </si>
+  <si>
+    <t>PARCELAS</t>
+  </si>
+  <si>
+    <t>VL_TARIFA</t>
+  </si>
+  <si>
+    <t>DS_DETALHE</t>
+  </si>
+  <si>
+    <t>VL_TARIFACJUROS</t>
+  </si>
+  <si>
+    <t>DT_INI_VIG</t>
+  </si>
+  <si>
+    <t>CD_BANDEIRA_FRONT</t>
+  </si>
+  <si>
+    <t>0.00000</t>
+  </si>
+  <si>
+    <t>2014-07-01 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Todas as parcelas</t>
+  </si>
+  <si>
+    <t>2014-04-08 00:00:00.000</t>
+  </si>
+  <si>
+    <t>0.80000</t>
+  </si>
+  <si>
+    <t>0.50000</t>
+  </si>
+  <si>
+    <t>000000145</t>
+  </si>
+  <si>
+    <t>000000251</t>
+  </si>
+  <si>
+    <t>2.15000</t>
+  </si>
+  <si>
+    <t>000000252</t>
+  </si>
+  <si>
+    <t>2.20000</t>
+  </si>
+  <si>
+    <t>2.00000</t>
+  </si>
+  <si>
+    <t>1.80000</t>
+  </si>
+  <si>
+    <t>000000253</t>
+  </si>
+  <si>
+    <t>Sessão zncmgc106m000 (Adquirentes de Cartão de Crédito)</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Cód Adquirente"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Cód Adquirente pelo site"</t>
+  </si>
+  <si>
+    <t>Detalhar o adquirente desejado e pegar a informação de "Companhia Site" no cabeçalho da tela</t>
+  </si>
+  <si>
+    <t>Sessão zncmgc108m000 (Tarifas e Bandeira de Cartões de Crédito) - Ir com a seta "Next Group" até encontrar o código do adquirente desejado</t>
+  </si>
+  <si>
+    <t>Pegar a informação de "Cód Bandeira" no cabeçalho da tela</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "No. Parc. Até"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Tarifa Bandeira (%)"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Tarifa com Juros"</t>
+  </si>
+  <si>
+    <t>Pegar a informação de "Data início de vigência" no cabeçalho da tela</t>
+  </si>
+  <si>
+    <t>Sessão zncmgc107m000 (Bandeiras de Cartão de Crédito)</t>
+  </si>
+  <si>
+    <t>Informar o CD_BANDEIRA na coluna "Cód Bandeira". Pegar a informação da coluna "Cód Bandeira Site"</t>
+  </si>
+  <si>
+    <t>CD_TIPO_ORDEM_VENDA</t>
+  </si>
+  <si>
+    <t>DS_TIPO_ORDEM_VENDA</t>
+  </si>
+  <si>
+    <t>CD_TIPO_ORDEM_ARMAZEM</t>
+  </si>
+  <si>
+    <t>DS_TIPO_ORDEM_ARMAZEM</t>
+  </si>
+  <si>
+    <t>NR_ORDEM_DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>CD_TIPO_DOCUMENTO_FISCAL</t>
+  </si>
+  <si>
+    <t>VENDA P/ CONSUMO</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>Saída Automática</t>
+  </si>
+  <si>
+    <t>VENDA P/ REVENDA</t>
+  </si>
+  <si>
+    <t>VENDA P/ PRESENTE</t>
+  </si>
+  <si>
+    <t>VENDA P/ LOJA RETIRA</t>
+  </si>
+  <si>
+    <t>VENDA P/ FATURA PRE</t>
+  </si>
+  <si>
+    <t>VENDA P/ FATURA POS</t>
+  </si>
+  <si>
+    <t>VENDA P/ SALDÃO</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>SALDÃO</t>
+  </si>
+  <si>
+    <t>VENDA P/ COMPL</t>
+  </si>
+  <si>
+    <t>VENDA P/ CONSUMO - DEV INS</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>Rec. Autom. s/ Inspeção</t>
+  </si>
+  <si>
+    <t>VENDA P/ REVENDA - DEV INS</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>tdsls0594m000</t>
+  </si>
+  <si>
+    <t>Sessão tdsls0594m000 (Tipos de Ordens de Venda)</t>
+  </si>
+  <si>
+    <t>Pegar a primeira informação da coluna "Tipo de Ordem de Venda"</t>
+  </si>
+  <si>
+    <t>Pegar a segunda informação da coluna "Tipo de Ordem de Venda"</t>
+  </si>
+  <si>
+    <t>Pegar a informação do código do "Tipo de Ordem de Armazém"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da descrição do "Tipo de Ordem de Armazém"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Ordem de Devolução"</t>
+  </si>
+  <si>
+    <t>1-Estoque de devoluções</t>
+  </si>
+  <si>
+    <t>2-Não</t>
+  </si>
+  <si>
+    <t>3-Devoluções rejeitadas</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Tipo de Documento Fiscal"</t>
+  </si>
+  <si>
+    <t>1-Venda com pedido</t>
+  </si>
+  <si>
+    <t>2-Venda sem pedido</t>
+  </si>
+  <si>
+    <t>3-Prestação de serviços</t>
+  </si>
+  <si>
+    <t>4-Transferência de mercadoria</t>
+  </si>
+  <si>
+    <t>5-Remessa</t>
+  </si>
+  <si>
+    <t>6-Complemento de ICMS</t>
+  </si>
+  <si>
+    <t>7-Complemento de IPI</t>
+  </si>
+  <si>
+    <t>8-Complemento de Preço</t>
+  </si>
+  <si>
+    <t>9-Retorno mercadoria de fornec.</t>
+  </si>
+  <si>
+    <t>10-Fatura de juros</t>
+  </si>
+  <si>
+    <t>11-Estorno</t>
+  </si>
+  <si>
+    <t>13-Importação</t>
+  </si>
+  <si>
+    <t>14-Retorno mercadoria de cliente</t>
+  </si>
+  <si>
+    <t>15-Remessa op. triangular</t>
+  </si>
+  <si>
+    <t>16-Fatura op. triangular</t>
+  </si>
+  <si>
+    <t>17-Remessa para Terceiros</t>
+  </si>
+  <si>
+    <t>18-Retorno Remessa de Terceiros</t>
+  </si>
+  <si>
+    <t>19-Retorno Real de Rem. de Terceiros</t>
+  </si>
+  <si>
+    <t>20-Remessa simb. op. triangular</t>
+  </si>
+  <si>
+    <t>21-Remessa simbólica TNP</t>
+  </si>
+  <si>
+    <t>22-Retorno de remessa de conserto</t>
+  </si>
+  <si>
+    <t>23-Remessa consignada</t>
+  </si>
+  <si>
+    <t>24-Remessa simb. consignada</t>
+  </si>
+  <si>
+    <t>25-Venda consignada</t>
+  </si>
+  <si>
+    <t>26-Retorno mat. consignado</t>
+  </si>
+  <si>
+    <t>27-Crédito de imposto (entrada)</t>
+  </si>
+  <si>
+    <t>28-Remessa p/ Carro</t>
+  </si>
+  <si>
+    <t>29-Venda no Carro</t>
+  </si>
+  <si>
+    <t>30-Remessa fora estabelecimento</t>
+  </si>
+  <si>
+    <t>31-Venda fora estabelecimento</t>
+  </si>
+  <si>
+    <t>32-Remessa emprestimo</t>
+  </si>
+  <si>
+    <t>33-Serviço emprestimo</t>
+  </si>
+  <si>
+    <t>34-Retorno de conserto (Service)</t>
+  </si>
+  <si>
+    <t>35-Remessa Terceiros (WCS)</t>
+  </si>
+  <si>
+    <t>36-Remessa Dep. Fechado</t>
+  </si>
+  <si>
+    <t>37-Retorno Real Dep. Fechado</t>
+  </si>
+  <si>
+    <t>38-Retorno Simb. Dep. Fechado</t>
+  </si>
+  <si>
+    <t>39-Saída Simb. Dep. Fechado</t>
+  </si>
+  <si>
+    <t>40-Remessa Arm. Geral</t>
+  </si>
+  <si>
+    <t>41-Retorno Real Arm. Geral</t>
+  </si>
+  <si>
+    <t>42-Retorno Simb. Arm. Geral</t>
+  </si>
+  <si>
+    <t>43-Simples Remessa Arm. Geral</t>
+  </si>
+  <si>
+    <t>44-Saída Simb. Arm. Geral</t>
+  </si>
+  <si>
+    <t>45-FA Simples faturamento</t>
+  </si>
+  <si>
+    <t>46-FA Simples remessa</t>
+  </si>
+  <si>
+    <t>47-VEF Simples faturamento</t>
+  </si>
+  <si>
+    <t>48-VEF Simples remessa</t>
+  </si>
+  <si>
+    <t>50-Outros</t>
+  </si>
+  <si>
+    <t>51-Nota fiscal de entrada</t>
+  </si>
+  <si>
+    <t>52-Crédito de imposto (saída)</t>
+  </si>
+  <si>
+    <t>53-Complemento de importação</t>
+  </si>
+  <si>
+    <t>100-Não aplicável</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2844,8 +3219,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2879,6 +3262,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA7E7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3091,7 +3492,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3207,55 +3608,49 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3263,6 +3658,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3276,6 +3677,37 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3285,8 +3717,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFA7E7E"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFF5050"/>
     </mruColors>
@@ -4236,8 +4668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
@@ -4795,75 +5227,70 @@
     </row>
     <row r="42" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C42" s="6"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
       <c r="J42" s="2"/>
       <c r="L42" s="2"/>
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C43" s="6"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
       <c r="J43" s="2"/>
       <c r="L43" s="2"/>
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C44" s="6"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
       <c r="J44" s="2"/>
       <c r="L44" s="2"/>
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C45" s="6"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
       <c r="J45" s="2"/>
       <c r="L45" s="2"/>
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C46" s="6"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
       <c r="J46" s="2"/>
       <c r="L46" s="2"/>
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C47" s="6"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
       <c r="J47" s="2"/>
       <c r="L47" s="2"/>
       <c r="W47" s="2"/>
     </row>
     <row r="48" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C48" s="6"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
       <c r="J48" s="2"/>
       <c r="L48" s="2"/>
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C49" s="6"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
       <c r="J49" s="2"/>
       <c r="L49" s="2"/>
       <c r="W49" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D42:E42"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
@@ -4871,6 +5298,11 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5086,10 +5518,10 @@
     <row r="16" spans="1:32">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="51" t="s">
         <v>361</v>
       </c>
       <c r="F16" s="21"/>
@@ -5100,8 +5532,8 @@
     </row>
     <row r="17" spans="1:10">
       <c r="B17" s="6"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -5110,8 +5542,8 @@
     </row>
     <row r="18" spans="1:10">
       <c r="B18" s="6"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -5119,10 +5551,10 @@
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="51" t="s">
         <v>881</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="51"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="20"/>
@@ -5132,8 +5564,8 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="20"/>
@@ -5143,8 +5575,8 @@
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -5152,12 +5584,12 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5728,53 +6160,53 @@
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="52" t="s">
         <v>476</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="53" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="52" t="s">
         <v>477</v>
       </c>
-      <c r="J19" s="56"/>
-      <c r="K19" s="53" t="s">
+      <c r="J19" s="54"/>
+      <c r="K19" s="52" t="s">
         <v>480</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="57"/>
-      <c r="I20" s="54"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="57"/>
-      <c r="K20" s="54"/>
+      <c r="K20" s="55"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="55"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
@@ -6015,22 +6447,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="A19:H21"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6750,71 +7182,71 @@
       <c r="AK18" s="2"/>
     </row>
     <row r="19" spans="1:37" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="61" t="s">
         <v>555</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61" t="s">
         <v>556</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="61" t="s">
         <v>559</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
       <c r="X19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AK19" s="2"/>
     </row>
     <row r="20" spans="1:37" ht="11.25" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="11.25" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="11.25" customHeight="1">
@@ -7090,6 +7522,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="P22:P25"/>
     <mergeCell ref="Q22:Q25"/>
     <mergeCell ref="A19:C21"/>
@@ -7106,12 +7544,6 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7307,38 +7739,38 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="51" t="s">
         <v>881</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="51"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
       <c r="D18" s="35"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -7596,10 +8028,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>588</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
       <c r="D6" s="26" t="s">
         <v>584</v>
       </c>
@@ -7698,30 +8130,30 @@
       <c r="E15" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="62" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>881</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:6">
@@ -7738,10 +8170,10 @@
       <c r="F23" s="38"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="64"/>
       <c r="D25" s="26" t="s">
         <v>584</v>
       </c>
@@ -7847,30 +8279,30 @@
       <c r="E36" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="F36" s="64" t="s">
+      <c r="F36" s="62" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
-      <c r="F37" s="65"/>
+      <c r="F37" s="63"/>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="65" t="s">
         <v>881</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="36"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="36"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="36"/>
     </row>
     <row r="41" spans="1:6">
@@ -7880,6 +8312,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A38:B40"/>
@@ -7887,11 +8324,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7985,10 +8417,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>593</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
       <c r="D6" s="26" t="s">
         <v>597</v>
       </c>
@@ -8088,10 +8520,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>881</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="36"/>
       <c r="D19" s="48" t="s">
         <v>360</v>
@@ -8099,21 +8531,21 @@
       <c r="E19" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="62" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="36"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
-      <c r="F20" s="65"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:6">
@@ -8130,10 +8562,10 @@
       <c r="F23" s="38"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="64" t="s">
         <v>595</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="64"/>
       <c r="D25" s="26" t="s">
         <v>597</v>
       </c>
@@ -8244,10 +8676,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="65" t="s">
         <v>881</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="36"/>
       <c r="D38" s="48" t="s">
         <v>360</v>
@@ -8255,21 +8687,21 @@
       <c r="E38" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="F38" s="62" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="36"/>
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
-      <c r="F39" s="65"/>
+      <c r="F39" s="63"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="36"/>
     </row>
     <row r="41" spans="1:6">
@@ -8279,18 +8711,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A19:B21"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A38:B40"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A19:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8366,10 +8798,10 @@
       <c r="L3" s="11"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>608</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="12"/>
       <c r="D6" s="26" t="s">
         <v>605</v>
@@ -8545,10 +8977,10 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>881</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="36"/>
       <c r="D19" s="48" t="s">
         <v>360</v>
@@ -8556,23 +8988,23 @@
       <c r="E19" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="62" t="s">
         <v>607</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="36"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
-      <c r="F20" s="65"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="36"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -8607,10 +9039,10 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="64" t="s">
         <v>609</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="12"/>
       <c r="D25" s="26" t="s">
         <v>605</v>
@@ -8792,10 +9224,10 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="65" t="s">
         <v>881</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="36"/>
       <c r="D38" s="48" t="s">
         <v>360</v>
@@ -8803,23 +9235,23 @@
       <c r="E38" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="F38" s="62" t="s">
         <v>610</v>
       </c>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="36"/>
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
-      <c r="F39" s="65"/>
+      <c r="F39" s="63"/>
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="36"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -8921,10 +9353,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>593</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="12"/>
       <c r="D6" s="26" t="s">
         <v>613</v>
@@ -9083,10 +9515,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>881</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="36"/>
       <c r="D19" s="48" t="s">
         <v>360</v>
@@ -9094,25 +9526,25 @@
       <c r="E19" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="62" t="s">
         <v>594</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="36"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
-      <c r="F20" s="65"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="11"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="36"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -9151,10 +9583,10 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="12"/>
       <c r="D25" s="26" t="s">
         <v>613</v>
@@ -9343,10 +9775,10 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="65" t="s">
         <v>881</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="36"/>
       <c r="D38" s="48" t="s">
         <v>360</v>
@@ -9354,25 +9786,25 @@
       <c r="E38" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="F38" s="62" t="s">
         <v>611</v>
       </c>
       <c r="G38" s="11"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="36"/>
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
-      <c r="F39" s="65"/>
+      <c r="F39" s="63"/>
       <c r="G39" s="11"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="36"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -9407,6 +9839,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A19:B21"/>
@@ -9414,11 +9851,6 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9429,27 +9861,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="19.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="11" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1">
       <c r="C1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -9475,7 +9911,7 @@
       <c r="B3" s="46"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -9485,7 +9921,7 @@
     </row>
     <row r="4" spans="1:32" s="1" customFormat="1">
       <c r="C4" s="2"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -9496,10 +9932,530 @@
       <c r="U4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
+    <row r="6" spans="1:32" ht="21.75" customHeight="1">
+      <c r="A6" s="71" t="s">
+        <v>899</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>900</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>905</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>901</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>902</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>904</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>903</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>906</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="75" t="s">
+        <v>913</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>890</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>908</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>907</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>907</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="75" t="s">
+        <v>892</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="70" t="s">
+        <v>914</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>915</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>907</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>909</v>
+      </c>
+      <c r="J8" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="70" t="s">
+        <v>916</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>917</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>907</v>
+      </c>
+      <c r="I9" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="70" t="s">
+        <v>916</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>918</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>907</v>
+      </c>
+      <c r="I10" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="70" t="s">
+        <v>916</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>919</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>907</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="70" t="s">
+        <v>920</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>911</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>912</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="70" t="s">
+        <v>920</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>912</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>907</v>
+      </c>
+      <c r="I13" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="70" t="s">
+        <v>920</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>911</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>912</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="70" t="s">
+        <v>920</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>912</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>907</v>
+      </c>
+      <c r="I15" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="70" t="s">
+        <v>920</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>911</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>912</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="73" t="s">
+        <v>921</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="76" t="s">
+        <v>925</v>
+      </c>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="J18" s="77" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="J19" s="77"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="J20" s="77"/>
+    </row>
+    <row r="21" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A21" s="72" t="s">
+        <v>922</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>923</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>924</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>926</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>930</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>927</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>928</v>
+      </c>
+      <c r="H21" s="72" t="s">
+        <v>929</v>
+      </c>
+      <c r="J21" s="72" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="J22" s="72"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="J23" s="72"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="J24" s="72"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="J25" s="72"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="J26" s="72"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="J27" s="72"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="J28" s="72"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="14">
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="D18:H20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="A18:C20"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="G21:G28"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9573,10 +10529,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>626</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="12"/>
       <c r="D6" s="15" t="s">
         <v>275</v>
@@ -9735,10 +10691,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>881</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="36"/>
       <c r="D19" s="48" t="s">
         <v>627</v>
@@ -9753,8 +10709,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="36"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
@@ -9763,8 +10719,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="36"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
@@ -9865,10 +10821,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>626</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="12"/>
       <c r="D6" s="15" t="s">
         <v>633</v>
@@ -10013,10 +10969,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>881</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="36"/>
       <c r="D19" s="48" t="s">
         <v>644</v>
@@ -10028,8 +10984,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="36"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
@@ -10037,8 +10993,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="36"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
@@ -10312,20 +11268,20 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="51" t="s">
         <v>663</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="51" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11044,10 +12000,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>626</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>722</v>
@@ -11203,10 +12159,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>881</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="36"/>
       <c r="D19" s="66" t="s">
         <v>582</v>
@@ -11218,8 +12174,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="36"/>
       <c r="D20" s="67"/>
       <c r="E20" s="48"/>
@@ -11227,8 +12183,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="36"/>
       <c r="D21" s="68"/>
       <c r="E21" s="48"/>
@@ -11962,10 +12918,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>626</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>765</v>
@@ -12125,10 +13081,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>881</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="36"/>
       <c r="D19" s="66" t="s">
         <v>582</v>
@@ -12140,8 +13096,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="36"/>
       <c r="D20" s="67"/>
       <c r="E20" s="48"/>
@@ -12149,8 +13105,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="36"/>
       <c r="D21" s="68"/>
       <c r="E21" s="48"/>
@@ -14393,10 +15349,10 @@
         <v>789</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="51" t="s">
         <v>791</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="7"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -14415,8 +15371,8 @@
       <c r="B7" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -14432,8 +15388,8 @@
       <c r="B8" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -14449,8 +15405,8 @@
       <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -14466,8 +15422,8 @@
       <c r="B10" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -14483,8 +15439,8 @@
       <c r="B11" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -15051,10 +16007,10 @@
       <c r="AA18" s="6"/>
     </row>
     <row r="19" spans="1:27" s="10" customFormat="1">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="51" t="s">
         <v>814</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="51" t="s">
         <v>815</v>
       </c>
       <c r="N19" s="6"/>
@@ -15062,15 +16018,15 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" s="10" customFormat="1">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
       <c r="N20" s="6"/>
       <c r="P20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="1:27" s="10" customFormat="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
       <c r="N21" s="6"/>
       <c r="P21" s="6"/>
       <c r="AA21" s="6"/>
@@ -15375,10 +16331,10 @@
       <c r="AA18" s="6"/>
     </row>
     <row r="19" spans="1:27" s="10" customFormat="1">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="51" t="s">
         <v>831</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="51" t="s">
         <v>816</v>
       </c>
       <c r="N19" s="6"/>
@@ -15386,15 +16342,15 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" s="10" customFormat="1">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
       <c r="N20" s="6"/>
       <c r="P20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="1:27" s="10" customFormat="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
       <c r="N21" s="6"/>
       <c r="P21" s="6"/>
       <c r="AA21" s="6"/>
@@ -15486,10 +16442,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>626</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>295</v>
@@ -15649,10 +16605,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>881</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="36"/>
       <c r="D19" s="66" t="s">
         <v>582</v>
@@ -15664,8 +16620,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="36"/>
       <c r="D20" s="67"/>
       <c r="E20" s="48"/>
@@ -15673,8 +16629,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="36"/>
       <c r="D21" s="68"/>
       <c r="E21" s="48"/>
@@ -15708,22 +16664,23 @@
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="11" customWidth="1"/>
     <col min="2" max="2" width="26" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="3" max="3" width="23.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1">
@@ -15752,7 +16709,9 @@
         <v>402</v>
       </c>
       <c r="B3" s="46"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>961</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -15775,10 +16734,619 @@
       <c r="U4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
+    <row r="6" spans="1:32" ht="24" customHeight="1">
+      <c r="A6" s="71" t="s">
+        <v>933</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>934</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>935</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>936</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>937</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>938</v>
+      </c>
+      <c r="G6" s="78"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>939</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>940</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>941</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="78"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>942</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>940</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="78"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>943</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>940</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="78"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>944</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>940</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="78"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="70" t="s">
+        <v>956</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>945</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>940</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="78"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="70" t="s">
+        <v>957</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>946</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>940</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="78"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="70" t="s">
+        <v>958</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>947</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>948</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>949</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="78"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="70" t="s">
+        <v>959</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>950</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>940</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="78"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>951</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>952</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="78"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="70" t="s">
+        <v>960</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>954</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>952</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="78"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="73" t="s">
+        <v>962</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="72" t="s">
+        <v>963</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>964</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>965</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>966</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>967</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="E29" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="E30" s="80" t="s">
+        <v>968</v>
+      </c>
+      <c r="F30" s="79" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="E31" s="80" t="s">
+        <v>969</v>
+      </c>
+      <c r="F31" s="79" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="E32" s="80" t="s">
+        <v>970</v>
+      </c>
+      <c r="F32" s="79" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="79" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="79" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="79" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="79" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="79" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="79" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="79" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="79" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="79" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="79" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="79" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="79" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="79" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="79" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="79" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="79" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="79" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="79" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="79" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="79" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="79" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="79" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="79" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="79" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="79" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="79" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="79" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="79" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="79" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="79" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="79" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" s="79" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="79" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="79" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="79" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="79" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="79" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="79" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="79" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" s="79" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="79" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="79" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="79" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" s="79" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" s="79" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" s="79" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" s="79" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" s="79" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="79" t="s">
+        <v>1023</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="A18:F20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16183,8 +17751,8 @@
         <v>296</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:32" ht="11.25" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -16834,15 +18402,15 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:29" ht="11.25" customHeight="1">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47" t="s">
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="49" t="s">
         <v>400</v>
       </c>
       <c r="G23" s="1"/>
@@ -16852,11 +18420,11 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="11.25" customHeight="1">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -16865,11 +18433,11 @@
     </row>
     <row r="25" spans="1:29" ht="11.25" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>

--- a/Documentação/Planilhas/Conferencia_DOM_SD.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM_SD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="32" activeTab="35"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="20" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -2305,9 +2305,6 @@
     <t>13422677</t>
   </si>
   <si>
-    <t>tibom1110m000</t>
-  </si>
-  <si>
     <t>Pegar a informação do Item no cabeçalho da tela</t>
   </si>
   <si>
@@ -3146,6 +3143,9 @@
   </si>
   <si>
     <t>100-Não aplicável</t>
+  </si>
+  <si>
+    <t>tibom1110m000 (Lista de Material)</t>
   </si>
 </sst>
 </file>
@@ -3605,6 +3605,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3626,31 +3657,37 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3658,12 +3695,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3677,37 +3708,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4669,10 +4669,10 @@
   <dimension ref="B1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4683,51 +4683,51 @@
   <sheetData>
     <row r="1" spans="2:3" ht="33" customHeight="1">
       <c r="B1" s="42" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="45" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C2" s="44"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="45" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C3" s="44"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="45" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C4" s="44"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="45" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C5" s="44"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="45" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C6" s="44"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="45" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C7" s="44"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="45" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C8" s="44"/>
     </row>
@@ -4841,67 +4841,67 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="45" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C27" s="44"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="45" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C28" s="44"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="45" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C29" s="44"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="45" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C30" s="44"/>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="45" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C31" s="44"/>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="45" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C32" s="44"/>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="45" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C34" s="44"/>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="45" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C35" s="44"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="45" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C36" s="44"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="45" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C37" s="44"/>
     </row>
@@ -4974,20 +4974,20 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>408</v>
       </c>
@@ -5037,10 +5037,10 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="59" t="s">
         <v>274</v>
       </c>
       <c r="G11" s="2"/>
@@ -5048,15 +5048,15 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
       <c r="G12" s="2"/>
       <c r="I12" s="2"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
       <c r="T13" s="2"/>
@@ -5227,70 +5227,75 @@
     </row>
     <row r="42" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C42" s="6"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
       <c r="J42" s="2"/>
       <c r="L42" s="2"/>
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C43" s="6"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
       <c r="J43" s="2"/>
       <c r="L43" s="2"/>
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C44" s="6"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
       <c r="J44" s="2"/>
       <c r="L44" s="2"/>
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C45" s="6"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
       <c r="J45" s="2"/>
       <c r="L45" s="2"/>
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C46" s="6"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
       <c r="J46" s="2"/>
       <c r="L46" s="2"/>
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C47" s="6"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
       <c r="J47" s="2"/>
       <c r="L47" s="2"/>
       <c r="W47" s="2"/>
     </row>
     <row r="48" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C48" s="6"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
       <c r="J48" s="2"/>
       <c r="L48" s="2"/>
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C49" s="6"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
       <c r="J49" s="2"/>
       <c r="L49" s="2"/>
       <c r="W49" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
@@ -5298,11 +5303,6 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5342,12 +5342,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -5359,10 +5359,10 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -5518,10 +5518,10 @@
     <row r="16" spans="1:32">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="62" t="s">
         <v>361</v>
       </c>
       <c r="F16" s="21"/>
@@ -5532,8 +5532,8 @@
     </row>
     <row r="17" spans="1:10">
       <c r="B17" s="6"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -5542,8 +5542,8 @@
     </row>
     <row r="18" spans="1:10">
       <c r="B18" s="6"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -5551,10 +5551,10 @@
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="51" t="s">
-        <v>881</v>
-      </c>
-      <c r="B19" s="51"/>
+      <c r="A19" s="62" t="s">
+        <v>880</v>
+      </c>
+      <c r="B19" s="62"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="20"/>
@@ -5564,8 +5564,8 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="20"/>
@@ -5575,8 +5575,8 @@
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -5584,12 +5584,12 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5612,8 +5612,8 @@
   </sheetPr>
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5647,20 +5647,20 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>475</v>
       </c>
@@ -6160,135 +6160,135 @@
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="52" t="s">
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="63" t="s">
         <v>477</v>
       </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="52" t="s">
+      <c r="J19" s="66"/>
+      <c r="K19" s="63" t="s">
         <v>480</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="55"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="64"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="58"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="65"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="59" t="s">
         <v>468</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="59" t="s">
         <v>470</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="59" t="s">
         <v>471</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="59" t="s">
         <v>472</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="59" t="s">
         <v>478</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="59" t="s">
         <v>479</v>
       </c>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="59" t="s">
         <v>564</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
@@ -6447,22 +6447,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="A19:H21"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6509,20 +6509,20 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>558</v>
       </c>
@@ -7182,185 +7182,185 @@
       <c r="AK18" s="2"/>
     </row>
     <row r="19" spans="1:37" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="72" t="s">
         <v>555</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72" t="s">
         <v>556</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="72" t="s">
         <v>559</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
       <c r="X19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AK19" s="2"/>
     </row>
     <row r="20" spans="1:37" ht="11.25" customHeight="1">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="11.25" customHeight="1">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="11.25" customHeight="1">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="59" t="s">
         <v>553</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="59" t="s">
         <v>557</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="59" t="s">
         <v>560</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="59" t="s">
         <v>562</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="59" t="s">
         <v>563</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="59" t="s">
         <v>565</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="59" t="s">
         <v>632</v>
       </c>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="59" t="s">
         <v>566</v>
       </c>
-      <c r="L22" s="48" t="s">
+      <c r="L22" s="59" t="s">
         <v>567</v>
       </c>
-      <c r="M22" s="48" t="s">
+      <c r="M22" s="59" t="s">
         <v>568</v>
       </c>
-      <c r="N22" s="48" t="s">
+      <c r="N22" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="O22" s="48" t="s">
+      <c r="O22" s="59" t="s">
         <v>569</v>
       </c>
-      <c r="P22" s="48" t="s">
+      <c r="P22" s="59" t="s">
         <v>570</v>
       </c>
-      <c r="Q22" s="48" t="s">
+      <c r="Q22" s="59" t="s">
         <v>571</v>
       </c>
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="11.25" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:37">
@@ -7522,12 +7522,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="P22:P25"/>
     <mergeCell ref="Q22:Q25"/>
     <mergeCell ref="A19:C21"/>
@@ -7544,6 +7538,12 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7590,22 +7590,22 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -7718,59 +7718,59 @@
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1">
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="59" t="s">
         <v>574</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="59" t="s">
         <v>575</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="51" t="s">
-        <v>881</v>
-      </c>
-      <c r="B17" s="51"/>
+      <c r="A17" s="62" t="s">
+        <v>880</v>
+      </c>
+      <c r="B17" s="62"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
       <c r="D18" s="35"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -7828,22 +7828,22 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>578</v>
       </c>
@@ -7912,21 +7912,21 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="59" t="s">
         <v>579</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="59" t="s">
         <v>580</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7972,21 +7972,21 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -8028,10 +8028,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="73" t="s">
         <v>588</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="73"/>
       <c r="D6" s="26" t="s">
         <v>584</v>
       </c>
@@ -8124,36 +8124,36 @@
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="75" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="63"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="65" t="s">
-        <v>881</v>
-      </c>
-      <c r="B19" s="65"/>
+      <c r="A19" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B19" s="74"/>
       <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:6">
@@ -8170,10 +8170,10 @@
       <c r="F23" s="38"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="73" t="s">
         <v>589</v>
       </c>
-      <c r="B25" s="64"/>
+      <c r="B25" s="73"/>
       <c r="D25" s="26" t="s">
         <v>584</v>
       </c>
@@ -8273,36 +8273,36 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F36" s="62" t="s">
+      <c r="F36" s="75" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="63"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="76"/>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="65" t="s">
-        <v>881</v>
-      </c>
-      <c r="B38" s="65"/>
+      <c r="A38" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B38" s="74"/>
       <c r="C38" s="36"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="36"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="36"/>
     </row>
     <row r="41" spans="1:6">
@@ -8312,11 +8312,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="D15:D16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A38:B40"/>
@@ -8324,6 +8319,11 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8361,21 +8361,21 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -8417,10 +8417,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="73" t="s">
         <v>593</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="73"/>
       <c r="D6" s="26" t="s">
         <v>597</v>
       </c>
@@ -8520,32 +8520,32 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="65" t="s">
-        <v>881</v>
-      </c>
-      <c r="B19" s="65"/>
+      <c r="A19" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B19" s="74"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="75" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="63"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="76"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:6">
@@ -8562,10 +8562,10 @@
       <c r="F23" s="38"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="73" t="s">
         <v>595</v>
       </c>
-      <c r="B25" s="64"/>
+      <c r="B25" s="73"/>
       <c r="D25" s="26" t="s">
         <v>597</v>
       </c>
@@ -8676,32 +8676,32 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="65" t="s">
-        <v>881</v>
-      </c>
-      <c r="B38" s="65"/>
+      <c r="A38" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B38" s="74"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F38" s="62" t="s">
+      <c r="F38" s="75" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="36"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="63"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="76"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="36"/>
     </row>
     <row r="41" spans="1:6">
@@ -8711,18 +8711,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A38:B40"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="A19:B21"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A38:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8765,12 +8765,12 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -8781,10 +8781,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -8798,10 +8798,10 @@
       <c r="L3" s="11"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="73" t="s">
         <v>608</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="12"/>
       <c r="D6" s="26" t="s">
         <v>605</v>
@@ -8977,34 +8977,34 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="65" t="s">
-        <v>881</v>
-      </c>
-      <c r="B19" s="65"/>
+      <c r="A19" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B19" s="74"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="75" t="s">
         <v>607</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="63"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="76"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="36"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -9039,10 +9039,10 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="73" t="s">
         <v>609</v>
       </c>
-      <c r="B25" s="64"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="12"/>
       <c r="D25" s="26" t="s">
         <v>605</v>
@@ -9224,34 +9224,34 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="65" t="s">
-        <v>881</v>
-      </c>
-      <c r="B38" s="65"/>
+      <c r="A38" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B38" s="74"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F38" s="62" t="s">
+      <c r="F38" s="75" t="s">
         <v>610</v>
       </c>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="36"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="63"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="76"/>
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="36"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -9315,12 +9315,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -9330,10 +9330,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -9353,10 +9353,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="73" t="s">
         <v>593</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="12"/>
       <c r="D6" s="26" t="s">
         <v>613</v>
@@ -9515,36 +9515,36 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="65" t="s">
-        <v>881</v>
-      </c>
-      <c r="B19" s="65"/>
+      <c r="A19" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B19" s="74"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="75" t="s">
         <v>594</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="63"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="76"/>
       <c r="G20" s="11"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="36"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -9583,10 +9583,10 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="73" t="s">
         <v>612</v>
       </c>
-      <c r="B25" s="64"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="12"/>
       <c r="D25" s="26" t="s">
         <v>613</v>
@@ -9775,36 +9775,36 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="65" t="s">
-        <v>881</v>
-      </c>
-      <c r="B38" s="65"/>
+      <c r="A38" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B38" s="74"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F38" s="62" t="s">
+      <c r="F38" s="75" t="s">
         <v>611</v>
       </c>
       <c r="G38" s="11"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="36"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="63"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="76"/>
       <c r="G39" s="11"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="36"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -9839,11 +9839,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A19:B21"/>
@@ -9851,6 +9846,11 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9894,21 +9894,21 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
@@ -9933,529 +9933,529 @@
       <c r="AF4" s="2"/>
     </row>
     <row r="6" spans="1:32" ht="21.75" customHeight="1">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="47" t="s">
+        <v>898</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>899</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="C6" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>904</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>900</v>
       </c>
-      <c r="C6" s="71" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>249</v>
-      </c>
-      <c r="E6" s="71" t="s">
+      <c r="G6" s="47" t="s">
+        <v>901</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>903</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>902</v>
+      </c>
+      <c r="J6" s="47" t="s">
         <v>905</v>
       </c>
-      <c r="F6" s="71" t="s">
-        <v>901</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>902</v>
-      </c>
-      <c r="H6" s="71" t="s">
-        <v>904</v>
-      </c>
-      <c r="I6" s="71" t="s">
-        <v>903</v>
-      </c>
-      <c r="J6" s="71" t="s">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="49" t="s">
+        <v>912</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>889</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>907</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="49" t="s">
         <v>906</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="75" t="s">
+      <c r="H7" s="49" t="s">
+        <v>906</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>891</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="46" t="s">
         <v>913</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B8" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>914</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>906</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>908</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="46" t="s">
+        <v>915</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="E9" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>916</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>906</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="46" t="s">
+        <v>915</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="75" t="s">
-        <v>890</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>908</v>
-      </c>
-      <c r="F7" s="75" t="s">
+      <c r="D10" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>917</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>906</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="46" t="s">
+        <v>915</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>918</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>906</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="F12" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="75" t="s">
-        <v>907</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>907</v>
-      </c>
-      <c r="I7" s="74" t="s">
+      <c r="G12" s="46" t="s">
+        <v>910</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>911</v>
+      </c>
+      <c r="I12" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="75" t="s">
-        <v>892</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="70" t="s">
-        <v>914</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="70" t="s">
+      <c r="J12" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="70" t="s">
+      <c r="D13" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>911</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>906</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="46" t="s">
         <v>910</v>
       </c>
-      <c r="F8" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>915</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>907</v>
-      </c>
-      <c r="I8" s="70" t="s">
+      <c r="H14" s="46" t="s">
+        <v>911</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>909</v>
       </c>
-      <c r="J8" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="70" t="s">
-        <v>916</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="70" t="s">
+      <c r="F15" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="70" t="s">
+      <c r="G15" s="46" t="s">
+        <v>911</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>906</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="46" t="s">
         <v>910</v>
       </c>
-      <c r="F9" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>917</v>
-      </c>
-      <c r="H9" s="70" t="s">
-        <v>907</v>
-      </c>
-      <c r="I9" s="70" t="s">
+      <c r="H16" s="46" t="s">
+        <v>911</v>
+      </c>
+      <c r="I16" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="70" t="s">
-        <v>916</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>910</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="70" t="s">
-        <v>918</v>
-      </c>
-      <c r="H10" s="70" t="s">
-        <v>907</v>
-      </c>
-      <c r="I10" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="70" t="s">
-        <v>916</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>910</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>919</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>907</v>
-      </c>
-      <c r="I11" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="70" t="s">
+      <c r="J16" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="56" t="s">
         <v>920</v>
       </c>
-      <c r="B12" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>910</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>911</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>912</v>
-      </c>
-      <c r="I12" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="70" t="s">
-        <v>920</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>910</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>912</v>
-      </c>
-      <c r="H13" s="70" t="s">
-        <v>907</v>
-      </c>
-      <c r="I13" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="A14" s="70" t="s">
-        <v>920</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>910</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="70" t="s">
-        <v>911</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>912</v>
-      </c>
-      <c r="I14" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:32">
-      <c r="A15" s="70" t="s">
-        <v>920</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>910</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="70" t="s">
-        <v>912</v>
-      </c>
-      <c r="H15" s="70" t="s">
-        <v>907</v>
-      </c>
-      <c r="I15" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:32">
-      <c r="A16" s="70" t="s">
-        <v>920</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>910</v>
-      </c>
-      <c r="F16" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="70" t="s">
-        <v>911</v>
-      </c>
-      <c r="H16" s="70" t="s">
-        <v>912</v>
-      </c>
-      <c r="I16" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="73" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="54" t="s">
+        <v>924</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="J18" s="55" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="J19" s="55"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="J20" s="55"/>
+    </row>
+    <row r="21" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A21" s="53" t="s">
         <v>921</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="76" t="s">
+      <c r="B21" s="53" t="s">
+        <v>922</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>923</v>
+      </c>
+      <c r="D21" s="53" t="s">
         <v>925</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="J18" s="77" t="s">
+      <c r="E21" s="53" t="s">
+        <v>929</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>926</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>927</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>928</v>
+      </c>
+      <c r="J21" s="53" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="J19" s="77"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="J20" s="77"/>
-    </row>
-    <row r="21" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A21" s="72" t="s">
-        <v>922</v>
-      </c>
-      <c r="B21" s="72" t="s">
-        <v>923</v>
-      </c>
-      <c r="C21" s="72" t="s">
-        <v>924</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>926</v>
-      </c>
-      <c r="E21" s="72" t="s">
-        <v>930</v>
-      </c>
-      <c r="F21" s="72" t="s">
-        <v>927</v>
-      </c>
-      <c r="G21" s="72" t="s">
-        <v>928</v>
-      </c>
-      <c r="H21" s="72" t="s">
-        <v>929</v>
-      </c>
-      <c r="J21" s="72" t="s">
-        <v>932</v>
-      </c>
-    </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="J22" s="72"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="J23" s="72"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="J24" s="72"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="J25" s="72"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="J26" s="72"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="J27" s="72"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="J27" s="53"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="J28" s="72"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="J28" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="A18:C20"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="G21:G28"/>
     <mergeCell ref="H21:H28"/>
     <mergeCell ref="E21:E28"/>
     <mergeCell ref="J21:J28"/>
     <mergeCell ref="D18:H20"/>
     <mergeCell ref="J18:J20"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="A18:C20"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10491,12 +10491,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -10506,10 +10506,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -10529,10 +10529,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="12"/>
       <c r="D6" s="15" t="s">
         <v>275</v>
@@ -10691,40 +10691,40 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="65" t="s">
-        <v>881</v>
-      </c>
-      <c r="B19" s="65"/>
+      <c r="A19" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B19" s="74"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="59" t="s">
         <v>627</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="59" t="s">
         <v>628</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="59" t="s">
         <v>629</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="11"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="11"/>
       <c r="L21" s="2"/>
     </row>
@@ -10783,12 +10783,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -10798,10 +10798,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -10821,10 +10821,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="12"/>
       <c r="D6" s="15" t="s">
         <v>633</v>
@@ -10969,35 +10969,35 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="65" t="s">
-        <v>881</v>
-      </c>
-      <c r="B19" s="65"/>
+      <c r="A19" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B19" s="74"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="59" t="s">
         <v>644</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="59" t="s">
         <v>645</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
       <c r="G20" s="11"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
       <c r="G21" s="11"/>
       <c r="L21" s="2"/>
     </row>
@@ -11005,8 +11005,8 @@
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="L22" s="2"/>
@@ -11082,12 +11082,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="1"/>
@@ -11097,10 +11097,10 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>662</v>
       </c>
@@ -11268,20 +11268,20 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="62" t="s">
         <v>663</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="62" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11353,12 +11353,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="1"/>
@@ -11370,10 +11370,10 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>687</v>
       </c>
@@ -11606,12 +11606,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
@@ -11623,10 +11623,10 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>709</v>
       </c>
@@ -11897,30 +11897,30 @@
       <c r="AE16" s="1"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="59" t="s">
         <v>710</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="59" t="s">
         <v>711</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="59" t="s">
         <v>712</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="59" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11964,12 +11964,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -11978,10 +11978,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -12000,10 +12000,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>722</v>
@@ -12159,35 +12159,35 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="65" t="s">
-        <v>881</v>
-      </c>
-      <c r="B19" s="65"/>
+      <c r="A19" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B19" s="74"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="77" t="s">
         <v>582</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="59" t="s">
         <v>725</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="11"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="48"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="11"/>
       <c r="K21" s="2"/>
     </row>
@@ -12222,8 +12222,8 @@
   </sheetPr>
   <dimension ref="A2:AG21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12271,12 +12271,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D2" s="2"/>
       <c r="G2" s="1"/>
@@ -12288,12 +12288,12 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
-        <v>743</v>
+        <v>1023</v>
       </c>
       <c r="D3" s="2"/>
       <c r="G3" s="1"/>
@@ -12523,20 +12523,20 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="59" t="s">
+        <v>743</v>
+      </c>
+      <c r="B19" s="59" t="s">
         <v>744</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>745</v>
-      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12584,12 +12584,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12600,12 +12600,12 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -12617,16 +12617,16 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>749</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -12770,30 +12770,30 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="11.25" customHeight="1">
-      <c r="A18" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="B18" s="48" t="s">
+      <c r="A18" s="59" t="s">
+        <v>750</v>
+      </c>
+      <c r="B18" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="59" t="s">
+        <v>752</v>
+      </c>
+      <c r="D18" s="59" t="s">
         <v>753</v>
       </c>
-      <c r="D18" s="48" t="s">
-        <v>754</v>
-      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8"/>
@@ -12882,12 +12882,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12896,10 +12896,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -12918,16 +12918,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>765</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>766</v>
       </c>
       <c r="F6" s="11"/>
       <c r="K6" s="2"/>
@@ -12940,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F7" s="11"/>
       <c r="K7" s="2"/>
@@ -12953,7 +12953,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F8" s="11"/>
       <c r="K8" s="2"/>
@@ -12966,7 +12966,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F9" s="11"/>
       <c r="K9" s="2"/>
@@ -12992,7 +12992,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F11" s="11"/>
       <c r="K11" s="2"/>
@@ -13005,7 +13005,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F12" s="11"/>
       <c r="K12" s="2"/>
@@ -13018,7 +13018,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F13" s="11"/>
       <c r="K13" s="2"/>
@@ -13031,7 +13031,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F14" s="11"/>
       <c r="K14" s="2"/>
@@ -13044,7 +13044,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F15" s="11"/>
       <c r="K15" s="2"/>
@@ -13057,7 +13057,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F16" s="11"/>
       <c r="K16" s="2"/>
@@ -13081,35 +13081,35 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="65" t="s">
-        <v>881</v>
-      </c>
-      <c r="B19" s="65"/>
+      <c r="A19" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B19" s="74"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="77" t="s">
         <v>582</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="59" t="s">
         <v>725</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="11"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="48"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="11"/>
       <c r="K21" s="2"/>
     </row>
@@ -13195,12 +13195,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
@@ -13213,12 +13213,12 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -13248,7 +13248,7 @@
         <v>704</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="1"/>
@@ -13343,7 +13343,7 @@
         <v>707</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D11" s="8"/>
       <c r="F11" s="1"/>
@@ -13359,7 +13359,7 @@
         <v>692</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>695</v>
@@ -13419,7 +13419,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D15" s="8"/>
       <c r="F15" s="1"/>
@@ -13450,25 +13450,25 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="59" t="s">
         <v>710</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>775</v>
-      </c>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="59" t="s">
+        <v>774</v>
+      </c>
+      <c r="C19" s="59" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13516,10 +13516,10 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
         <v>248</v>
       </c>
@@ -13528,10 +13528,10 @@
       <c r="AE2" s="2"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>267</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -13654,7 +13654,7 @@
         <v>250</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -13682,7 +13682,7 @@
         <v>251</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -13766,7 +13766,7 @@
         <v>257</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -13780,7 +13780,7 @@
         <v>258</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -13836,7 +13836,7 @@
         <v>262</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -13870,7 +13870,7 @@
         <v>263</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -14000,13 +14000,13 @@
     </row>
     <row r="31" spans="1:30" s="2" customFormat="1">
       <c r="A31" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>891</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>892</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -14034,13 +14034,13 @@
     </row>
     <row r="32" spans="1:30" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>895</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -14079,7 +14079,7 @@
         <v>269</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -14454,12 +14454,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -14470,12 +14470,12 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -14712,11 +14712,11 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="59" t="s">
+        <v>776</v>
+      </c>
+      <c r="B15" s="59" t="s">
         <v>777</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>778</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -14726,8 +14726,8 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -14736,8 +14736,8 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -14823,12 +14823,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="1"/>
@@ -14840,12 +14840,12 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="1"/>
@@ -14895,10 +14895,10 @@
         <v>703</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>782</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>783</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -15090,7 +15090,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -15158,19 +15158,19 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="59" t="s">
         <v>710</v>
       </c>
-      <c r="B18" s="48" t="s">
-        <v>775</v>
-      </c>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="59" t="s">
+        <v>774</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>784</v>
+      </c>
+      <c r="D18" s="59" t="s">
         <v>785</v>
       </c>
-      <c r="D18" s="48" t="s">
-        <v>786</v>
-      </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="59" t="s">
         <v>713</v>
       </c>
       <c r="F18" s="1"/>
@@ -15182,11 +15182,11 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -15196,11 +15196,11 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -15274,12 +15274,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D2" s="2"/>
       <c r="G2" s="1"/>
@@ -15291,12 +15291,12 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D3" s="2"/>
       <c r="G3" s="1"/>
@@ -15343,16 +15343,16 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>788</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>789</v>
-      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="51" t="s">
-        <v>791</v>
-      </c>
-      <c r="E6" s="51"/>
+      <c r="D6" s="62" t="s">
+        <v>790</v>
+      </c>
+      <c r="E6" s="62"/>
       <c r="F6" s="7"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -15369,10 +15369,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+        <v>766</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -15388,8 +15388,8 @@
       <c r="B8" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -15405,8 +15405,8 @@
       <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -15422,8 +15422,8 @@
       <c r="B10" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -15437,10 +15437,10 @@
         <v>690</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+        <v>789</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -15468,10 +15468,10 @@
       <c r="AG13" s="6"/>
     </row>
     <row r="14" spans="1:33" s="6" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A14" s="48" t="s">
-        <v>775</v>
-      </c>
-      <c r="B14" s="48" t="s">
+      <c r="A14" s="59" t="s">
+        <v>774</v>
+      </c>
+      <c r="B14" s="59" t="s">
         <v>713</v>
       </c>
       <c r="C14" s="8"/>
@@ -15501,8 +15501,8 @@
       <c r="AF14" s="10"/>
     </row>
     <row r="15" spans="1:33" s="10" customFormat="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="8"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -15513,8 +15513,8 @@
       <c r="AG15" s="6"/>
     </row>
     <row r="16" spans="1:33" s="10" customFormat="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="8"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -15781,12 +15781,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -15794,12 +15794,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -15825,8 +15825,8 @@
       <c r="B5" s="2"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
@@ -15836,10 +15836,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="19" t="s">
+        <v>807</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>808</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>809</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="41"/>
@@ -15854,10 +15854,10 @@
     </row>
     <row r="7" spans="1:27" s="10" customFormat="1">
       <c r="A7" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -15869,10 +15869,10 @@
     </row>
     <row r="8" spans="1:27" s="10" customFormat="1">
       <c r="A8" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
@@ -15884,10 +15884,10 @@
     </row>
     <row r="9" spans="1:27" s="10" customFormat="1">
       <c r="A9" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
@@ -15899,10 +15899,10 @@
     </row>
     <row r="10" spans="1:27" s="10" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -15914,10 +15914,10 @@
     </row>
     <row r="11" spans="1:27" s="10" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -15929,10 +15929,10 @@
     </row>
     <row r="12" spans="1:27" s="10" customFormat="1">
       <c r="A12" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
@@ -15944,10 +15944,10 @@
     </row>
     <row r="13" spans="1:27" s="10" customFormat="1">
       <c r="A13" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
@@ -15959,10 +15959,10 @@
     </row>
     <row r="14" spans="1:27" s="10" customFormat="1">
       <c r="A14" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>811</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>812</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -15974,10 +15974,10 @@
     </row>
     <row r="15" spans="1:27" s="10" customFormat="1">
       <c r="A15" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N15" s="6"/>
       <c r="P15" s="6"/>
@@ -15985,10 +15985,10 @@
     </row>
     <row r="16" spans="1:27" s="10" customFormat="1">
       <c r="A16" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="N16" s="6"/>
       <c r="P16" s="6"/>
@@ -16007,26 +16007,26 @@
       <c r="AA18" s="6"/>
     </row>
     <row r="19" spans="1:27" s="10" customFormat="1">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="62" t="s">
+        <v>813</v>
+      </c>
+      <c r="B19" s="62" t="s">
         <v>814</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>815</v>
       </c>
       <c r="N19" s="6"/>
       <c r="P19" s="6"/>
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" s="10" customFormat="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
       <c r="N20" s="6"/>
       <c r="P20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="1:27" s="10" customFormat="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
       <c r="N21" s="6"/>
       <c r="P21" s="6"/>
       <c r="AA21" s="6"/>
@@ -16105,12 +16105,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -16118,12 +16118,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -16149,8 +16149,8 @@
       <c r="B5" s="2"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
@@ -16160,10 +16160,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>818</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>819</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="41"/>
@@ -16181,7 +16181,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -16196,7 +16196,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
@@ -16211,7 +16211,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
@@ -16226,7 +16226,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -16241,7 +16241,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -16256,7 +16256,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
@@ -16271,7 +16271,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
@@ -16286,7 +16286,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -16301,7 +16301,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="N15" s="6"/>
       <c r="P15" s="6"/>
@@ -16312,7 +16312,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="N16" s="6"/>
       <c r="P16" s="6"/>
@@ -16331,26 +16331,26 @@
       <c r="AA18" s="6"/>
     </row>
     <row r="19" spans="1:27" s="10" customFormat="1">
-      <c r="A19" s="51" t="s">
-        <v>831</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>816</v>
+      <c r="A19" s="62" t="s">
+        <v>830</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>815</v>
       </c>
       <c r="N19" s="6"/>
       <c r="P19" s="6"/>
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" s="10" customFormat="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
       <c r="N20" s="6"/>
       <c r="P20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="1:27" s="10" customFormat="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
       <c r="N21" s="6"/>
       <c r="P21" s="6"/>
       <c r="AA21" s="6"/>
@@ -16406,12 +16406,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -16420,10 +16420,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -16442,10 +16442,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>295</v>
@@ -16605,35 +16605,35 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="65" t="s">
-        <v>881</v>
-      </c>
-      <c r="B19" s="65"/>
+      <c r="A19" s="74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B19" s="74"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="77" t="s">
         <v>582</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="59" t="s">
         <v>725</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="11"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="48"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="11"/>
       <c r="K21" s="2"/>
     </row>
@@ -16668,7 +16668,7 @@
   </sheetPr>
   <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -16694,23 +16694,23 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="11"/>
@@ -16735,605 +16735,605 @@
       <c r="AF4" s="2"/>
     </row>
     <row r="6" spans="1:32" ht="24" customHeight="1">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="47" t="s">
+        <v>932</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>933</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="C6" s="47" t="s">
         <v>934</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="D6" s="47" t="s">
         <v>935</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="E6" s="47" t="s">
         <v>936</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="F6" s="47" t="s">
         <v>937</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>938</v>
       </c>
-      <c r="G6" s="78"/>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="75" t="s">
+      <c r="C7" s="49" t="s">
         <v>939</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="D7" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="E7" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="50"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>941</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="C8" s="46" t="s">
+        <v>939</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>940</v>
+      </c>
+      <c r="E8" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F8" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="78"/>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="70" t="s">
+      <c r="G8" s="50"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>942</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C9" s="46" t="s">
+        <v>939</v>
+      </c>
+      <c r="D9" s="46" t="s">
         <v>940</v>
       </c>
-      <c r="D8" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="E8" s="70" t="s">
+      <c r="E9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F9" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="46" t="s">
+        <v>954</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>943</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>939</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>940</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="78"/>
-    </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>943</v>
-      </c>
-      <c r="C9" s="70" t="s">
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="46" t="s">
+        <v>955</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>944</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>939</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>940</v>
       </c>
-      <c r="D9" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="E9" s="70" t="s">
+      <c r="E11" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F11" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="78"/>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="70" t="s">
-        <v>955</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>944</v>
-      </c>
-      <c r="C10" s="70" t="s">
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="46" t="s">
+        <v>956</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>945</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>939</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>940</v>
       </c>
-      <c r="D10" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="E10" s="70" t="s">
+      <c r="E12" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F12" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="46" t="s">
+        <v>957</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>946</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>947</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="78"/>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="70" t="s">
-        <v>956</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>945</v>
-      </c>
-      <c r="C11" s="70" t="s">
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="46" t="s">
+        <v>958</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>949</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>939</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>940</v>
       </c>
-      <c r="D11" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="E11" s="70" t="s">
+      <c r="E14" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="78"/>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="70" t="s">
-        <v>957</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>946</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>940</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="78"/>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="70" t="s">
-        <v>958</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>947</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>948</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>949</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="70" t="s">
+      <c r="F14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="78"/>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="A14" s="70" t="s">
+      <c r="G14" s="50"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>950</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>951</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>952</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="46" t="s">
         <v>959</v>
       </c>
-      <c r="B14" s="70" t="s">
-        <v>950</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>940</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="70" t="s">
+      <c r="B16" s="46" t="s">
+        <v>953</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>951</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>952</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="78"/>
-    </row>
-    <row r="15" spans="1:32">
-      <c r="A15" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>951</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>952</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>953</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="70" t="s">
+      <c r="F16" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="78"/>
-    </row>
-    <row r="16" spans="1:32">
-      <c r="A16" s="70" t="s">
-        <v>960</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>954</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>952</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>953</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="56" t="s">
+        <v>961</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="53" t="s">
         <v>962</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="72" t="s">
+      <c r="B21" s="53" t="s">
         <v>963</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="C21" s="53" t="s">
         <v>964</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="D21" s="53" t="s">
         <v>965</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="E21" s="53" t="s">
         <v>966</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="F21" s="53" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="E29" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="E30" s="52" t="s">
         <v>967</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F30" s="51" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="E29" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="79" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="E30" s="80" t="s">
+    <row r="31" spans="1:6">
+      <c r="E31" s="52" t="s">
         <v>968</v>
       </c>
-      <c r="F30" s="79" t="s">
+      <c r="F31" s="51" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="E31" s="80" t="s">
+    <row r="32" spans="1:6">
+      <c r="E32" s="52" t="s">
         <v>969</v>
       </c>
-      <c r="F31" s="79" t="s">
+      <c r="F32" s="51" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="E32" s="80" t="s">
-        <v>970</v>
-      </c>
-      <c r="F32" s="79" t="s">
+    <row r="33" spans="6:6">
+      <c r="F33" s="51" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="79" t="s">
+    <row r="34" spans="6:6">
+      <c r="F34" s="51" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="79" t="s">
+    <row r="35" spans="6:6">
+      <c r="F35" s="51" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="79" t="s">
+    <row r="36" spans="6:6">
+      <c r="F36" s="51" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="79" t="s">
+    <row r="37" spans="6:6">
+      <c r="F37" s="51" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="37" spans="6:6">
-      <c r="F37" s="79" t="s">
+    <row r="38" spans="6:6">
+      <c r="F38" s="51" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="38" spans="6:6">
-      <c r="F38" s="79" t="s">
+    <row r="39" spans="6:6">
+      <c r="F39" s="51" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="39" spans="6:6">
-      <c r="F39" s="79" t="s">
+    <row r="40" spans="6:6">
+      <c r="F40" s="51" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="79" t="s">
+    <row r="41" spans="6:6">
+      <c r="F41" s="51" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="79" t="s">
+    <row r="42" spans="6:6">
+      <c r="F42" s="51" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="79" t="s">
+    <row r="43" spans="6:6">
+      <c r="F43" s="51" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="79" t="s">
+    <row r="44" spans="6:6">
+      <c r="F44" s="51" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="79" t="s">
+    <row r="45" spans="6:6">
+      <c r="F45" s="51" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="79" t="s">
+    <row r="46" spans="6:6">
+      <c r="F46" s="51" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="46" spans="6:6">
-      <c r="F46" s="79" t="s">
+    <row r="47" spans="6:6">
+      <c r="F47" s="51" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="47" spans="6:6">
-      <c r="F47" s="79" t="s">
+    <row r="48" spans="6:6">
+      <c r="F48" s="51" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="48" spans="6:6">
-      <c r="F48" s="79" t="s">
+    <row r="49" spans="6:6">
+      <c r="F49" s="51" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="49" spans="6:6">
-      <c r="F49" s="79" t="s">
+    <row r="50" spans="6:6">
+      <c r="F50" s="51" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="50" spans="6:6">
-      <c r="F50" s="79" t="s">
+    <row r="51" spans="6:6">
+      <c r="F51" s="51" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="51" spans="6:6">
-      <c r="F51" s="79" t="s">
+    <row r="52" spans="6:6">
+      <c r="F52" s="51" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="52" spans="6:6">
-      <c r="F52" s="79" t="s">
+    <row r="53" spans="6:6">
+      <c r="F53" s="51" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="53" spans="6:6">
-      <c r="F53" s="79" t="s">
+    <row r="54" spans="6:6">
+      <c r="F54" s="51" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="54" spans="6:6">
-      <c r="F54" s="79" t="s">
+    <row r="55" spans="6:6">
+      <c r="F55" s="51" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="55" spans="6:6">
-      <c r="F55" s="79" t="s">
+    <row r="56" spans="6:6">
+      <c r="F56" s="51" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="56" spans="6:6">
-      <c r="F56" s="79" t="s">
+    <row r="57" spans="6:6">
+      <c r="F57" s="51" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="57" spans="6:6">
-      <c r="F57" s="79" t="s">
+    <row r="58" spans="6:6">
+      <c r="F58" s="51" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="58" spans="6:6">
-      <c r="F58" s="79" t="s">
+    <row r="59" spans="6:6">
+      <c r="F59" s="51" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="6:6">
-      <c r="F59" s="79" t="s">
+    <row r="60" spans="6:6">
+      <c r="F60" s="51" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="60" spans="6:6">
-      <c r="F60" s="79" t="s">
+    <row r="61" spans="6:6">
+      <c r="F61" s="51" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="61" spans="6:6">
-      <c r="F61" s="79" t="s">
+    <row r="62" spans="6:6">
+      <c r="F62" s="51" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="62" spans="6:6">
-      <c r="F62" s="79" t="s">
+    <row r="63" spans="6:6">
+      <c r="F63" s="51" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="63" spans="6:6">
-      <c r="F63" s="79" t="s">
+    <row r="64" spans="6:6">
+      <c r="F64" s="51" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="64" spans="6:6">
-      <c r="F64" s="79" t="s">
+    <row r="65" spans="6:6">
+      <c r="F65" s="51" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="65" spans="6:6">
-      <c r="F65" s="79" t="s">
+    <row r="66" spans="6:6">
+      <c r="F66" s="51" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="66" spans="6:6">
-      <c r="F66" s="79" t="s">
+    <row r="67" spans="6:6">
+      <c r="F67" s="51" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="67" spans="6:6">
-      <c r="F67" s="79" t="s">
+    <row r="68" spans="6:6">
+      <c r="F68" s="51" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="68" spans="6:6">
-      <c r="F68" s="79" t="s">
+    <row r="69" spans="6:6">
+      <c r="F69" s="51" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="69" spans="6:6">
-      <c r="F69" s="79" t="s">
+    <row r="70" spans="6:6">
+      <c r="F70" s="51" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="70" spans="6:6">
-      <c r="F70" s="79" t="s">
+    <row r="71" spans="6:6">
+      <c r="F71" s="51" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="71" spans="6:6">
-      <c r="F71" s="79" t="s">
+    <row r="72" spans="6:6">
+      <c r="F72" s="51" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="72" spans="6:6">
-      <c r="F72" s="79" t="s">
+    <row r="73" spans="6:6">
+      <c r="F73" s="51" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="73" spans="6:6">
-      <c r="F73" s="79" t="s">
+    <row r="74" spans="6:6">
+      <c r="F74" s="51" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="74" spans="6:6">
-      <c r="F74" s="79" t="s">
+    <row r="75" spans="6:6">
+      <c r="F75" s="51" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="75" spans="6:6">
-      <c r="F75" s="79" t="s">
+    <row r="76" spans="6:6">
+      <c r="F76" s="51" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="76" spans="6:6">
-      <c r="F76" s="79" t="s">
+    <row r="77" spans="6:6">
+      <c r="F77" s="51" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="77" spans="6:6">
-      <c r="F77" s="79" t="s">
+    <row r="78" spans="6:6">
+      <c r="F78" s="51" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="78" spans="6:6">
-      <c r="F78" s="79" t="s">
+    <row r="79" spans="6:6">
+      <c r="F79" s="51" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="79" spans="6:6">
-      <c r="F79" s="79" t="s">
+    <row r="80" spans="6:6">
+      <c r="F80" s="51" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="80" spans="6:6">
-      <c r="F80" s="79" t="s">
+    <row r="81" spans="6:6">
+      <c r="F81" s="51" t="s">
         <v>1022</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6">
-      <c r="F81" s="79" t="s">
-        <v>1023</v>
       </c>
     </row>
   </sheetData>
@@ -17406,12 +17406,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -17419,12 +17419,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -17447,16 +17447,16 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>835</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>836</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>837</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>193</v>
@@ -17470,13 +17470,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -17493,7 +17493,7 @@
         <v>183</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -17510,7 +17510,7 @@
         <v>71</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -17527,7 +17527,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -17544,7 +17544,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -17561,7 +17561,7 @@
         <v>183</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -17578,7 +17578,7 @@
         <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -17595,7 +17595,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -17612,7 +17612,7 @@
         <v>183</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -17629,39 +17629,39 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="59" t="s">
+        <v>841</v>
+      </c>
+      <c r="B19" s="59" t="s">
         <v>842</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>843</v>
-      </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="59" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -17712,10 +17712,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
         <v>294</v>
       </c>
@@ -17728,10 +17728,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>297</v>
       </c>
@@ -17751,8 +17751,8 @@
         <v>296</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" spans="1:32" ht="11.25" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -17865,18 +17865,18 @@
       <c r="E16" s="7"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="59"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -17923,10 +17923,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
         <v>299</v>
       </c>
@@ -17938,10 +17938,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>320</v>
       </c>
@@ -18402,15 +18402,15 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:29" ht="11.25" customHeight="1">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="60" t="s">
         <v>398</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49" t="s">
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="60" t="s">
         <v>400</v>
       </c>
       <c r="G23" s="1"/>
@@ -18420,11 +18420,11 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="11.25" customHeight="1">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -18433,11 +18433,11 @@
     </row>
     <row r="25" spans="1:29" ht="11.25" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -18445,19 +18445,19 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:29" ht="11.25" customHeight="1">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="59" t="s">
         <v>401</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="59" t="s">
         <v>321</v>
       </c>
       <c r="G26" s="1"/>
@@ -18467,11 +18467,11 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:29" s="2" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -18497,11 +18497,11 @@
       <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="1:29" s="2" customFormat="1">
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -18527,11 +18527,11 @@
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="1:29" s="2" customFormat="1">
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -18557,11 +18557,11 @@
       <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="1:29" s="2" customFormat="1">
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -18587,11 +18587,11 @@
       <c r="AC30" s="1"/>
     </row>
     <row r="31" spans="1:29" s="2" customFormat="1">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -18822,10 +18822,10 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
         <v>322</v>
       </c>
@@ -18835,10 +18835,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>326</v>
       </c>
@@ -18949,20 +18949,20 @@
       <c r="B17" s="9"/>
     </row>
     <row r="19" spans="1:2" ht="11.25" customHeight="1">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="59" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -19023,10 +19023,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
         <v>322</v>
       </c>
@@ -19055,10 +19055,10 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>350</v>
       </c>
@@ -19249,13 +19249,13 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="59" t="s">
         <v>352</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="59" t="s">
         <v>353</v>
       </c>
       <c r="D18" s="1"/>
@@ -19286,9 +19286,9 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -19317,9 +19317,9 @@
       <c r="AC19" s="1"/>
     </row>
     <row r="20" spans="1:29">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -19450,10 +19450,10 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
         <v>355</v>
       </c>
@@ -19463,10 +19463,10 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>356</v>
       </c>
@@ -19602,24 +19602,24 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="59"/>
       <c r="E18" s="4"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
       <c r="E19" s="4"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
       <c r="E20" s="4"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -19696,12 +19696,12 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -19711,10 +19711,10 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>363</v>
       </c>
@@ -19946,56 +19946,56 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="59" t="s">
         <v>391</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="59" t="s">
         <v>392</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="59" t="s">
         <v>393</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="59" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Documentação/Planilhas/Conferencia_DOM_SD.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM_SD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="20" activeTab="25"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -1494,9 +1494,6 @@
     <t>tccom4500m000, tccom4100s000 e tccom4112s000</t>
   </si>
   <si>
-    <t>sessão tccom4500m000</t>
-  </si>
-  <si>
     <t>Sessão tccom4100s000 [detalhar o parceiro desejado na sessão tccom4500m000]</t>
   </si>
   <si>
@@ -3146,6 +3143,9 @@
   </si>
   <si>
     <t>tibom1110m000 (Lista de Material)</t>
+  </si>
+  <si>
+    <t>sessão "tccom4500m000" (Parceiros de Negócios)</t>
   </si>
 </sst>
 </file>
@@ -3624,20 +3624,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3657,37 +3657,31 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3695,6 +3689,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4672,7 +4672,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4683,51 +4683,51 @@
   <sheetData>
     <row r="1" spans="2:3" ht="33" customHeight="1">
       <c r="B1" s="42" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C2" s="44"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="45" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C3" s="44"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="45" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C4" s="44"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="45" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C5" s="44"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="45" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C6" s="44"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="45" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C7" s="44"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="45" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C8" s="44"/>
     </row>
@@ -4757,151 +4757,151 @@
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="45" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C13" s="44"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="45" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C14" s="44"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C15" s="44"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C16" s="44"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="45" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C17" s="44"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C18" s="44"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="45" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C19" s="44"/>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="45" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C20" s="44"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="45" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C21" s="44"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="45" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C22" s="44"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="45" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C23" s="44"/>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="45" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C24" s="44"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="45" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C25" s="44"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="45" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C26" s="44"/>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="45" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C27" s="44"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="45" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C28" s="44"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="45" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C29" s="44"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="45" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C30" s="44"/>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="45" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C31" s="44"/>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="45" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C32" s="44"/>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="45" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C33" s="44"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="45" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C34" s="44"/>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="45" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C35" s="44"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C36" s="44"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="45" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C37" s="44"/>
     </row>
@@ -4974,20 +4974,20 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>408</v>
       </c>
@@ -5291,11 +5291,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D42:E42"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
@@ -5303,6 +5298,11 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5342,12 +5342,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -5359,10 +5359,10 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="62" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B19" s="62"/>
       <c r="D19" s="1"/>
@@ -5612,8 +5612,8 @@
   </sheetPr>
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5647,20 +5647,20 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>475</v>
       </c>
@@ -6161,52 +6161,52 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="63" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="63" t="s">
-        <v>477</v>
-      </c>
-      <c r="J19" s="66"/>
+      <c r="J19" s="65"/>
       <c r="K19" s="63" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="64"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="66"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="65"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="65"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="69"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
@@ -6215,7 +6215,7 @@
         <v>468</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C22" s="59" t="s">
         <v>469</v>
@@ -6236,13 +6236,13 @@
         <v>474</v>
       </c>
       <c r="I22" s="59" t="s">
+        <v>477</v>
+      </c>
+      <c r="J22" s="59" t="s">
         <v>478</v>
       </c>
-      <c r="J22" s="59" t="s">
-        <v>479</v>
-      </c>
       <c r="K22" s="59" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -6447,22 +6447,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="A19:H21"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6509,22 +6509,22 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -6555,37 +6555,37 @@
         <v>418</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>484</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>485</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>364</v>
       </c>
       <c r="I6" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="L6" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="M6" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>490</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>491</v>
       </c>
       <c r="O6" s="13" t="s">
         <v>192</v>
@@ -6594,7 +6594,7 @@
         <v>193</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="R6" s="2"/>
       <c r="T6" s="2"/>
@@ -6614,16 +6614,16 @@
         <v>197</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>213</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>214</v>
@@ -6632,7 +6632,7 @@
         <v>244</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>31</v>
@@ -6647,7 +6647,7 @@
         <v>225</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>195</v>
@@ -6685,7 +6685,7 @@
         <v>219</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>205</v>
@@ -6706,7 +6706,7 @@
         <v>227</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R8" s="2"/>
       <c r="T8" s="2"/>
@@ -6782,25 +6782,25 @@
         <v>271</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="23" t="s">
         <v>502</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>503</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>244</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>31</v>
@@ -6812,10 +6812,10 @@
         <v>200</v>
       </c>
       <c r="O10" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="P10" s="23" t="s">
         <v>505</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>506</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>195</v>
@@ -6829,7 +6829,7 @@
         <v>271</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>2</v>
@@ -6838,43 +6838,43 @@
         <v>272</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>245</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="J11" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="K11" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>631</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="L11" s="23" t="s">
         <v>512</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>513</v>
       </c>
       <c r="M11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="N11" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="O11" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="P11" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="Q11" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="R11" s="2"/>
       <c r="T11" s="2"/>
@@ -6894,25 +6894,25 @@
         <v>273</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="23" t="s">
         <v>521</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>522</v>
       </c>
       <c r="J12" s="23" t="s">
         <v>244</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L12" s="23" t="s">
         <v>31</v>
@@ -6921,13 +6921,13 @@
         <v>31</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O12" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="P12" s="23" t="s">
         <v>524</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>525</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>195</v>
@@ -6950,25 +6950,25 @@
         <v>449</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>218</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>31</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>31</v>
@@ -6977,13 +6977,13 @@
         <v>31</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>195</v>
@@ -7006,25 +7006,25 @@
         <v>455</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>218</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J14" s="23" t="s">
         <v>31</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>31</v>
@@ -7033,13 +7033,13 @@
         <v>31</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>195</v>
@@ -7062,25 +7062,25 @@
         <v>461</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="23" t="s">
         <v>541</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>542</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>31</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>31</v>
@@ -7089,13 +7089,13 @@
         <v>31</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>195</v>
@@ -7115,28 +7115,28 @@
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="23" t="s">
         <v>549</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>550</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>31</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L16" s="23" t="s">
         <v>31</v>
@@ -7145,13 +7145,13 @@
         <v>31</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>195</v>
@@ -7183,15 +7183,15 @@
     </row>
     <row r="19" spans="1:37" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="A19" s="72" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="72"/>
@@ -7251,55 +7251,55 @@
     </row>
     <row r="22" spans="1:37" ht="11.25" customHeight="1">
       <c r="A22" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="B22" s="59" t="s">
         <v>553</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>554</v>
       </c>
       <c r="C22" s="59" t="s">
         <v>474</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E22" s="59" t="s">
+        <v>559</v>
+      </c>
+      <c r="F22" s="59" t="s">
         <v>560</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="G22" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="H22" s="59" t="s">
         <v>562</v>
       </c>
-      <c r="H22" s="59" t="s">
-        <v>563</v>
-      </c>
       <c r="I22" s="59" t="s">
+        <v>564</v>
+      </c>
+      <c r="J22" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="K22" s="59" t="s">
         <v>565</v>
       </c>
-      <c r="J22" s="59" t="s">
-        <v>632</v>
-      </c>
-      <c r="K22" s="59" t="s">
+      <c r="L22" s="59" t="s">
         <v>566</v>
       </c>
-      <c r="L22" s="59" t="s">
+      <c r="M22" s="59" t="s">
         <v>567</v>
-      </c>
-      <c r="M22" s="59" t="s">
-        <v>568</v>
       </c>
       <c r="N22" s="59" t="s">
         <v>209</v>
       </c>
       <c r="O22" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="P22" s="59" t="s">
         <v>569</v>
       </c>
-      <c r="P22" s="59" t="s">
+      <c r="Q22" s="59" t="s">
         <v>570</v>
-      </c>
-      <c r="Q22" s="59" t="s">
-        <v>571</v>
       </c>
       <c r="R22" s="1"/>
     </row>
@@ -7384,7 +7384,7 @@
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
@@ -7522,6 +7522,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="P22:P25"/>
     <mergeCell ref="Q22:Q25"/>
     <mergeCell ref="A19:C21"/>
@@ -7538,12 +7544,6 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7590,22 +7590,22 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -7719,10 +7719,10 @@
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1">
       <c r="D14" s="59" t="s">
+        <v>573</v>
+      </c>
+      <c r="E14" s="59" t="s">
         <v>574</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>575</v>
       </c>
       <c r="F14" s="11"/>
     </row>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="62" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B17" s="62"/>
       <c r="D17" s="11"/>
@@ -7828,24 +7828,24 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -7871,7 +7871,7 @@
         <v>415</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -7913,10 +7913,10 @@
     </row>
     <row r="12" spans="1:32" ht="11.25" customHeight="1">
       <c r="A12" s="59" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" s="59" t="s">
         <v>579</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>580</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -7972,21 +7972,21 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -8028,15 +8028,15 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="B6" s="73"/>
+      <c r="A6" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="B6" s="75"/>
       <c r="D6" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>584</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>585</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>336</v>
@@ -8050,7 +8050,7 @@
         <v>113</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -8061,7 +8061,7 @@
         <v>114</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -8072,7 +8072,7 @@
         <v>115</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -8083,7 +8083,7 @@
         <v>116</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -8094,7 +8094,7 @@
         <v>117</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -8105,7 +8105,7 @@
         <v>118</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -8116,7 +8116,7 @@
         <v>119</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -8130,30 +8130,30 @@
       <c r="E15" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F15" s="75" t="s">
-        <v>590</v>
+      <c r="F15" s="73" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="76"/>
+      <c r="F16" s="74"/>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="74" t="s">
-        <v>880</v>
-      </c>
-      <c r="B19" s="74"/>
+      <c r="A19" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="B19" s="76"/>
       <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:6">
@@ -8170,15 +8170,15 @@
       <c r="F23" s="38"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="73" t="s">
-        <v>589</v>
-      </c>
-      <c r="B25" s="73"/>
+      <c r="A25" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="B25" s="75"/>
       <c r="D25" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>584</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>585</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>336</v>
@@ -8192,7 +8192,7 @@
         <v>120</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8203,7 +8203,7 @@
         <v>158</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8214,7 +8214,7 @@
         <v>74</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8225,7 +8225,7 @@
         <v>159</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -8236,7 +8236,7 @@
         <v>119</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8247,7 +8247,7 @@
         <v>27</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8258,7 +8258,7 @@
         <v>160</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8269,7 +8269,7 @@
         <v>161</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -8279,30 +8279,30 @@
       <c r="E36" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F36" s="75" t="s">
-        <v>591</v>
+      <c r="F36" s="73" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
-      <c r="F37" s="76"/>
+      <c r="F37" s="74"/>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="74" t="s">
-        <v>880</v>
-      </c>
-      <c r="B38" s="74"/>
+      <c r="A38" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="B38" s="76"/>
       <c r="C38" s="36"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="36"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="36"/>
     </row>
     <row r="41" spans="1:6">
@@ -8312,6 +8312,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A38:B40"/>
@@ -8319,11 +8324,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8361,21 +8361,21 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -8417,15 +8417,15 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="73" t="s">
-        <v>593</v>
-      </c>
-      <c r="B6" s="73"/>
+      <c r="A6" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="B6" s="75"/>
       <c r="D6" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>597</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>598</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>336</v>
@@ -8458,7 +8458,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>342</v>
@@ -8469,7 +8469,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>342</v>
@@ -8502,7 +8502,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>342</v>
@@ -8513,17 +8513,17 @@
         <v>8</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="74" t="s">
-        <v>880</v>
-      </c>
-      <c r="B19" s="74"/>
+      <c r="A19" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="B19" s="76"/>
       <c r="C19" s="36"/>
       <c r="D19" s="59" t="s">
         <v>360</v>
@@ -8531,21 +8531,21 @@
       <c r="E19" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="75" t="s">
-        <v>594</v>
+      <c r="F19" s="73" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="36"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
-      <c r="F20" s="76"/>
+      <c r="F20" s="74"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:6">
@@ -8562,15 +8562,15 @@
       <c r="F23" s="38"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="73" t="s">
-        <v>595</v>
-      </c>
-      <c r="B25" s="73"/>
+      <c r="A25" s="75" t="s">
+        <v>594</v>
+      </c>
+      <c r="B25" s="75"/>
       <c r="D25" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>597</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>598</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>336</v>
@@ -8584,7 +8584,7 @@
         <v>120</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8595,7 +8595,7 @@
         <v>133</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8606,7 +8606,7 @@
         <v>115</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8617,7 +8617,7 @@
         <v>134</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -8628,7 +8628,7 @@
         <v>135</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8639,7 +8639,7 @@
         <v>122</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8650,7 +8650,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8661,7 +8661,7 @@
         <v>136</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -8672,14 +8672,14 @@
         <v>137</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="74" t="s">
-        <v>880</v>
-      </c>
-      <c r="B38" s="74"/>
+      <c r="A38" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="B38" s="76"/>
       <c r="C38" s="36"/>
       <c r="D38" s="59" t="s">
         <v>360</v>
@@ -8687,21 +8687,21 @@
       <c r="E38" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F38" s="75" t="s">
-        <v>596</v>
+      <c r="F38" s="73" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="36"/>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
-      <c r="F39" s="76"/>
+      <c r="F39" s="74"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="36"/>
     </row>
     <row r="41" spans="1:6">
@@ -8711,18 +8711,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A19:B21"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A38:B40"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A19:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8765,12 +8765,12 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -8781,10 +8781,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -8798,16 +8798,16 @@
       <c r="L3" s="11"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="73" t="s">
-        <v>608</v>
-      </c>
-      <c r="B6" s="73"/>
+      <c r="A6" s="75" t="s">
+        <v>607</v>
+      </c>
+      <c r="B6" s="75"/>
       <c r="C6" s="12"/>
       <c r="D6" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>605</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>606</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>336</v>
@@ -8977,10 +8977,10 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="74" t="s">
-        <v>880</v>
-      </c>
-      <c r="B19" s="74"/>
+      <c r="A19" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="B19" s="76"/>
       <c r="C19" s="36"/>
       <c r="D19" s="59" t="s">
         <v>360</v>
@@ -8988,23 +8988,23 @@
       <c r="E19" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="75" t="s">
-        <v>607</v>
+      <c r="F19" s="73" t="s">
+        <v>606</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="36"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
-      <c r="F20" s="76"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="36"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -9039,16 +9039,16 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="73" t="s">
-        <v>609</v>
-      </c>
-      <c r="B25" s="73"/>
+      <c r="A25" s="75" t="s">
+        <v>608</v>
+      </c>
+      <c r="B25" s="75"/>
       <c r="C25" s="12"/>
       <c r="D25" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>605</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>606</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>336</v>
@@ -9224,10 +9224,10 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="74" t="s">
-        <v>880</v>
-      </c>
-      <c r="B38" s="74"/>
+      <c r="A38" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="B38" s="76"/>
       <c r="C38" s="36"/>
       <c r="D38" s="59" t="s">
         <v>360</v>
@@ -9235,23 +9235,23 @@
       <c r="E38" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F38" s="75" t="s">
-        <v>610</v>
+      <c r="F38" s="73" t="s">
+        <v>609</v>
       </c>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="36"/>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
-      <c r="F39" s="76"/>
+      <c r="F39" s="74"/>
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="36"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -9315,12 +9315,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -9330,10 +9330,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -9353,16 +9353,16 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="73" t="s">
-        <v>593</v>
-      </c>
-      <c r="B6" s="73"/>
+      <c r="A6" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="B6" s="75"/>
       <c r="C6" s="12"/>
       <c r="D6" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>613</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>614</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>336</v>
@@ -9515,10 +9515,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="74" t="s">
-        <v>880</v>
-      </c>
-      <c r="B19" s="74"/>
+      <c r="A19" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="B19" s="76"/>
       <c r="C19" s="36"/>
       <c r="D19" s="59" t="s">
         <v>360</v>
@@ -9526,25 +9526,25 @@
       <c r="E19" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="75" t="s">
-        <v>594</v>
+      <c r="F19" s="73" t="s">
+        <v>593</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="36"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
-      <c r="F20" s="76"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="11"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="36"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -9583,16 +9583,16 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="73" t="s">
-        <v>612</v>
-      </c>
-      <c r="B25" s="73"/>
+      <c r="A25" s="75" t="s">
+        <v>611</v>
+      </c>
+      <c r="B25" s="75"/>
       <c r="C25" s="12"/>
       <c r="D25" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>613</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>614</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>336</v>
@@ -9640,7 +9640,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>339</v>
@@ -9672,7 +9672,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>339</v>
@@ -9720,7 +9720,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>339</v>
@@ -9736,7 +9736,7 @@
         <v>9</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>339</v>
@@ -9775,10 +9775,10 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="74" t="s">
-        <v>880</v>
-      </c>
-      <c r="B38" s="74"/>
+      <c r="A38" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="B38" s="76"/>
       <c r="C38" s="36"/>
       <c r="D38" s="59" t="s">
         <v>360</v>
@@ -9786,25 +9786,25 @@
       <c r="E38" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F38" s="75" t="s">
-        <v>611</v>
+      <c r="F38" s="73" t="s">
+        <v>610</v>
       </c>
       <c r="G38" s="11"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="36"/>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
-      <c r="F39" s="76"/>
+      <c r="F39" s="74"/>
       <c r="G39" s="11"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="36"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -9839,6 +9839,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A19:B21"/>
@@ -9846,11 +9851,6 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9894,21 +9894,21 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
@@ -9934,10 +9934,10 @@
     </row>
     <row r="6" spans="1:32" ht="21.75" customHeight="1">
       <c r="A6" s="47" t="s">
+        <v>897</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>898</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>899</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>275</v>
@@ -9946,28 +9946,28 @@
         <v>249</v>
       </c>
       <c r="E6" s="47" t="s">
+        <v>903</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>899</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>900</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>902</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>901</v>
+      </c>
+      <c r="J6" s="47" t="s">
         <v>904</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>900</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>901</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>903</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>902</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>905</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="49" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>13</v>
@@ -9976,31 +9976,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F7" s="49" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I7" s="48" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="46" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B8" s="46" t="s">
         <v>5</v>
@@ -10012,19 +10012,19 @@
         <v>3</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J8" s="46" t="s">
         <v>3</v>
@@ -10033,7 +10033,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>4</v>
@@ -10045,16 +10045,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>55</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I9" s="46" t="s">
         <v>31</v>
@@ -10066,7 +10066,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>4</v>
@@ -10078,16 +10078,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I10" s="46" t="s">
         <v>31</v>
@@ -10099,7 +10099,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B11" s="46" t="s">
         <v>4</v>
@@ -10111,16 +10111,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>31</v>
@@ -10132,7 +10132,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="46" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>7</v>
@@ -10144,16 +10144,16 @@
         <v>11</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="H12" s="46" t="s">
         <v>910</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>911</v>
       </c>
       <c r="I12" s="46" t="s">
         <v>31</v>
@@ -10165,7 +10165,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="46" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>7</v>
@@ -10177,16 +10177,16 @@
         <v>11</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I13" s="46" t="s">
         <v>31</v>
@@ -10198,7 +10198,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="46" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B14" s="46" t="s">
         <v>7</v>
@@ -10210,16 +10210,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F14" s="46" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="H14" s="46" t="s">
         <v>910</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>911</v>
       </c>
       <c r="I14" s="46" t="s">
         <v>31</v>
@@ -10231,7 +10231,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="46" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B15" s="46" t="s">
         <v>7</v>
@@ -10243,16 +10243,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F15" s="46" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I15" s="46" t="s">
         <v>31</v>
@@ -10264,7 +10264,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="46" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>7</v>
@@ -10276,16 +10276,16 @@
         <v>6</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="H16" s="46" t="s">
         <v>910</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>911</v>
       </c>
       <c r="I16" s="46" t="s">
         <v>31</v>
@@ -10296,166 +10296,166 @@
       <c r="K16" s="1"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="55" t="s">
+        <v>919</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56" t="s">
+        <v>923</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="J18" s="57" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="J19" s="57"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="J20" s="57"/>
+    </row>
+    <row r="21" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A21" s="54" t="s">
         <v>920</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="54" t="s">
+      <c r="B21" s="54" t="s">
+        <v>921</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>922</v>
+      </c>
+      <c r="D21" s="54" t="s">
         <v>924</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="J18" s="55" t="s">
+      <c r="E21" s="54" t="s">
+        <v>928</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>925</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>926</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>927</v>
+      </c>
+      <c r="J21" s="54" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="J19" s="55"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="J20" s="55"/>
-    </row>
-    <row r="21" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A21" s="53" t="s">
-        <v>921</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>922</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>923</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>925</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>929</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>926</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>927</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>928</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>931</v>
-      </c>
-    </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="J22" s="53"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="J23" s="53"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="J24" s="53"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="J24" s="54"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="J25" s="53"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="J26" s="53"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="J27" s="53"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="J28" s="53"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="J28" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="D18:H20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="E21:E28"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="C21:C28"/>
     <mergeCell ref="A18:C20"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="J21:J28"/>
-    <mergeCell ref="D18:H20"/>
-    <mergeCell ref="J18:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10491,12 +10491,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -10506,10 +10506,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -10529,19 +10529,19 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="73" t="s">
-        <v>626</v>
-      </c>
-      <c r="B6" s="73"/>
+      <c r="A6" s="75" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" s="75"/>
       <c r="C6" s="12"/>
       <c r="D6" s="15" t="s">
         <v>275</v>
       </c>
       <c r="E6" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>620</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>621</v>
       </c>
       <c r="G6" s="11"/>
       <c r="L6" s="2"/>
@@ -10573,7 +10573,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G8" s="11"/>
       <c r="L8" s="2"/>
@@ -10589,7 +10589,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G9" s="11"/>
       <c r="L9" s="2"/>
@@ -10605,7 +10605,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G10" s="11"/>
       <c r="L10" s="2"/>
@@ -10691,26 +10691,26 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="74" t="s">
-        <v>880</v>
-      </c>
-      <c r="B19" s="74"/>
+      <c r="A19" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="B19" s="76"/>
       <c r="C19" s="36"/>
       <c r="D19" s="59" t="s">
+        <v>626</v>
+      </c>
+      <c r="E19" s="59" t="s">
         <v>627</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="F19" s="59" t="s">
         <v>628</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>629</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="36"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
@@ -10719,8 +10719,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="36"/>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
@@ -10783,12 +10783,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -10798,10 +10798,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -10821,16 +10821,16 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="73" t="s">
-        <v>626</v>
-      </c>
-      <c r="B6" s="73"/>
+      <c r="A6" s="75" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" s="75"/>
       <c r="C6" s="12"/>
       <c r="D6" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>633</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>634</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -10842,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F7" s="11"/>
     </row>
@@ -10854,7 +10854,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F8" s="11"/>
     </row>
@@ -10866,7 +10866,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F9" s="11"/>
     </row>
@@ -10878,7 +10878,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F10" s="11"/>
     </row>
@@ -10890,7 +10890,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F11" s="11"/>
     </row>
@@ -10902,7 +10902,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F12" s="11"/>
     </row>
@@ -10914,7 +10914,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F13" s="11"/>
     </row>
@@ -10926,7 +10926,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F14" s="11"/>
     </row>
@@ -10969,23 +10969,23 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="74" t="s">
-        <v>880</v>
-      </c>
-      <c r="B19" s="74"/>
+      <c r="A19" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="B19" s="76"/>
       <c r="C19" s="36"/>
       <c r="D19" s="59" t="s">
+        <v>643</v>
+      </c>
+      <c r="E19" s="59" t="s">
         <v>644</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>645</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="36"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
@@ -10993,8 +10993,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="36"/>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
@@ -11082,12 +11082,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="1"/>
@@ -11097,12 +11097,12 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="11"/>
@@ -11116,10 +11116,10 @@
     </row>
     <row r="6" spans="1:30" ht="11.25" customHeight="1">
       <c r="A6" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>656</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>657</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -11132,7 +11132,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C7" s="18"/>
       <c r="F7" s="1"/>
@@ -11146,7 +11146,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C8" s="18"/>
       <c r="F8" s="1"/>
@@ -11160,7 +11160,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C9" s="18"/>
       <c r="F9" s="1"/>
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C10" s="18"/>
       <c r="F10" s="1"/>
@@ -11202,7 +11202,7 @@
         <v>156</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C12" s="18"/>
       <c r="F12" s="1"/>
@@ -11213,10 +11213,10 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C13" s="18"/>
       <c r="F13" s="1"/>
@@ -11230,7 +11230,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C14" s="18"/>
       <c r="F14" s="1"/>
@@ -11241,10 +11241,10 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="C15" s="18"/>
       <c r="F15" s="1"/>
@@ -11255,10 +11255,10 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C16" s="18"/>
       <c r="F16" s="1"/>
@@ -11269,10 +11269,10 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="62" t="s">
+        <v>662</v>
+      </c>
+      <c r="B18" s="62" t="s">
         <v>663</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11353,12 +11353,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="1"/>
@@ -11370,12 +11370,12 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="11"/>
@@ -11389,10 +11389,10 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>668</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>669</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -11409,10 +11409,10 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -11429,10 +11429,10 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>670</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>671</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -11449,18 +11449,18 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>672</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="2" customFormat="1">
       <c r="A10" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>674</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>675</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -11485,58 +11485,58 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>679</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>681</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>683</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22.5">
       <c r="A19" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>688</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -11606,12 +11606,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
@@ -11623,12 +11623,12 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -11667,16 +11667,16 @@
     </row>
     <row r="6" spans="1:31" ht="11.25" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>704</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>703</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>705</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -11697,7 +11697,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -11718,7 +11718,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -11739,7 +11739,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -11751,7 +11751,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>28</v>
@@ -11760,7 +11760,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -11772,16 +11772,16 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>707</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>707</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>708</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -11793,7 +11793,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>1</v>
@@ -11802,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -11835,7 +11835,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>1</v>
@@ -11844,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -11856,7 +11856,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="23" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>1</v>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -11877,7 +11877,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>1</v>
@@ -11886,7 +11886,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -11898,16 +11898,16 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="59" t="s">
+        <v>709</v>
+      </c>
+      <c r="B18" s="59" t="s">
         <v>710</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="C18" s="59" t="s">
         <v>711</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="D18" s="59" t="s">
         <v>712</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -11964,12 +11964,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -11978,10 +11978,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -12000,16 +12000,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="73" t="s">
-        <v>626</v>
-      </c>
-      <c r="B6" s="73"/>
+      <c r="A6" s="75" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" s="75"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>722</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>723</v>
       </c>
       <c r="F6" s="11"/>
       <c r="K6" s="2"/>
@@ -12022,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F7" s="11"/>
       <c r="K7" s="2"/>
@@ -12035,7 +12035,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F8" s="11"/>
       <c r="K8" s="2"/>
@@ -12048,7 +12048,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F9" s="11"/>
       <c r="K9" s="2"/>
@@ -12061,7 +12061,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F10" s="11"/>
       <c r="K10" s="2"/>
@@ -12074,7 +12074,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F11" s="11"/>
       <c r="K11" s="2"/>
@@ -12087,7 +12087,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F12" s="11"/>
       <c r="K12" s="2"/>
@@ -12100,7 +12100,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F13" s="11"/>
       <c r="K13" s="2"/>
@@ -12113,7 +12113,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F14" s="11"/>
       <c r="K14" s="2"/>
@@ -12126,7 +12126,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F15" s="11"/>
       <c r="K15" s="2"/>
@@ -12159,23 +12159,23 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="74" t="s">
-        <v>880</v>
-      </c>
-      <c r="B19" s="74"/>
+      <c r="A19" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="B19" s="76"/>
       <c r="C19" s="36"/>
       <c r="D19" s="77" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="36"/>
       <c r="D20" s="78"/>
       <c r="E20" s="59"/>
@@ -12183,8 +12183,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="36"/>
       <c r="D21" s="79"/>
       <c r="E21" s="59"/>
@@ -12222,7 +12222,7 @@
   </sheetPr>
   <dimension ref="A2:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
@@ -12271,12 +12271,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D2" s="2"/>
       <c r="G2" s="1"/>
@@ -12288,12 +12288,12 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D3" s="2"/>
       <c r="G3" s="1"/>
@@ -12342,10 +12342,10 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -12364,10 +12364,10 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>729</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>730</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -12386,10 +12386,10 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -12408,10 +12408,10 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>732</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>733</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -12420,10 +12420,10 @@
     </row>
     <row r="10" spans="1:33" s="2" customFormat="1">
       <c r="A10" s="23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -12452,34 +12452,34 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>736</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="2" customFormat="1">
       <c r="A14" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>737</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>738</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -12508,26 +12508,26 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>739</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>741</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="59" t="s">
+        <v>742</v>
+      </c>
+      <c r="B19" s="59" t="s">
         <v>743</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -12584,12 +12584,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12600,12 +12600,12 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -12617,16 +12617,16 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>748</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -12771,16 +12771,16 @@
     </row>
     <row r="18" spans="1:4" ht="11.25" customHeight="1">
       <c r="A18" s="59" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B18" s="59" t="s">
         <v>274</v>
       </c>
       <c r="C18" s="59" t="s">
+        <v>751</v>
+      </c>
+      <c r="D18" s="59" t="s">
         <v>752</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12882,12 +12882,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12896,10 +12896,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -12918,16 +12918,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="73" t="s">
-        <v>626</v>
-      </c>
-      <c r="B6" s="73"/>
+      <c r="A6" s="75" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" s="75"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>764</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>765</v>
       </c>
       <c r="F6" s="11"/>
       <c r="K6" s="2"/>
@@ -12940,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F7" s="11"/>
       <c r="K7" s="2"/>
@@ -12953,7 +12953,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F8" s="11"/>
       <c r="K8" s="2"/>
@@ -12966,7 +12966,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F9" s="11"/>
       <c r="K9" s="2"/>
@@ -12992,7 +12992,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F11" s="11"/>
       <c r="K11" s="2"/>
@@ -13005,7 +13005,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F12" s="11"/>
       <c r="K12" s="2"/>
@@ -13018,7 +13018,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F13" s="11"/>
       <c r="K13" s="2"/>
@@ -13031,7 +13031,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F14" s="11"/>
       <c r="K14" s="2"/>
@@ -13044,7 +13044,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F15" s="11"/>
       <c r="K15" s="2"/>
@@ -13057,7 +13057,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F16" s="11"/>
       <c r="K16" s="2"/>
@@ -13081,23 +13081,23 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="74" t="s">
-        <v>880</v>
-      </c>
-      <c r="B19" s="74"/>
+      <c r="A19" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="B19" s="76"/>
       <c r="C19" s="36"/>
       <c r="D19" s="77" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="36"/>
       <c r="D20" s="78"/>
       <c r="E20" s="59"/>
@@ -13105,8 +13105,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="36"/>
       <c r="D21" s="79"/>
       <c r="E21" s="59"/>
@@ -13195,12 +13195,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
@@ -13213,12 +13213,12 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -13242,13 +13242,13 @@
     </row>
     <row r="6" spans="1:32" ht="11.25" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="1"/>
@@ -13267,7 +13267,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D7" s="8"/>
       <c r="F7" s="1"/>
@@ -13286,7 +13286,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D8" s="8"/>
       <c r="F8" s="1"/>
@@ -13305,7 +13305,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D9" s="8"/>
       <c r="F9" s="1"/>
@@ -13318,13 +13318,13 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D10" s="8"/>
       <c r="F10" s="1"/>
@@ -13337,13 +13337,13 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D11" s="8"/>
       <c r="F11" s="1"/>
@@ -13356,13 +13356,13 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D12" s="8"/>
       <c r="F12" s="1"/>
@@ -13375,13 +13375,13 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D13" s="8"/>
       <c r="F13" s="1"/>
@@ -13400,7 +13400,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D14" s="8"/>
       <c r="F14" s="1"/>
@@ -13413,13 +13413,13 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D15" s="8"/>
       <c r="F15" s="1"/>
@@ -13432,13 +13432,13 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D16" s="8"/>
       <c r="F16" s="1"/>
@@ -13451,13 +13451,13 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="59" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13516,10 +13516,10 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
         <v>248</v>
       </c>
@@ -13528,10 +13528,10 @@
       <c r="AE2" s="2"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>267</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -13654,7 +13654,7 @@
         <v>250</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -13682,7 +13682,7 @@
         <v>251</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -13766,7 +13766,7 @@
         <v>257</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -13780,7 +13780,7 @@
         <v>258</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -13836,7 +13836,7 @@
         <v>262</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -13870,7 +13870,7 @@
         <v>263</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -13972,7 +13972,7 @@
         <v>266</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -14000,13 +14000,13 @@
     </row>
     <row r="31" spans="1:30" s="2" customFormat="1">
       <c r="A31" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>891</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -14034,13 +14034,13 @@
     </row>
     <row r="32" spans="1:30" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>894</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -14079,7 +14079,7 @@
         <v>269</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -14454,12 +14454,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -14470,12 +14470,12 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -14713,10 +14713,10 @@
     </row>
     <row r="15" spans="1:32" ht="11.25" customHeight="1">
       <c r="A15" s="59" t="s">
+        <v>775</v>
+      </c>
+      <c r="B15" s="59" t="s">
         <v>776</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>777</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -14823,12 +14823,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="1"/>
@@ -14840,12 +14840,12 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="1"/>
@@ -14886,19 +14886,19 @@
     </row>
     <row r="6" spans="1:32" ht="11.25" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>781</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>782</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -14922,7 +14922,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -14946,7 +14946,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -14970,7 +14970,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -14982,7 +14982,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>28</v>
@@ -14994,7 +14994,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -15006,19 +15006,19 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>707</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>708</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -15030,7 +15030,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>1</v>
@@ -15042,7 +15042,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -15066,7 +15066,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -15078,7 +15078,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>1</v>
@@ -15090,7 +15090,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -15102,7 +15102,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>1</v>
@@ -15114,7 +15114,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -15126,7 +15126,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>1</v>
@@ -15138,7 +15138,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -15159,19 +15159,19 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="59" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C18" s="59" t="s">
+        <v>783</v>
+      </c>
+      <c r="D18" s="59" t="s">
         <v>784</v>
       </c>
-      <c r="D18" s="59" t="s">
-        <v>785</v>
-      </c>
       <c r="E18" s="59" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -15274,12 +15274,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D2" s="2"/>
       <c r="G2" s="1"/>
@@ -15291,12 +15291,12 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D3" s="2"/>
       <c r="G3" s="1"/>
@@ -15343,14 +15343,14 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>787</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>788</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="62" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="7"/>
@@ -15369,7 +15369,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="62"/>
@@ -15386,7 +15386,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
@@ -15420,7 +15420,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -15434,10 +15434,10 @@
     </row>
     <row r="11" spans="1:33" s="10" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -15469,10 +15469,10 @@
     </row>
     <row r="14" spans="1:33" s="6" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="59" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="10"/>
@@ -15781,12 +15781,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -15794,12 +15794,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -15836,10 +15836,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>807</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>808</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="41"/>
@@ -15854,10 +15854,10 @@
     </row>
     <row r="7" spans="1:27" s="10" customFormat="1">
       <c r="A7" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -15869,10 +15869,10 @@
     </row>
     <row r="8" spans="1:27" s="10" customFormat="1">
       <c r="A8" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
@@ -15884,10 +15884,10 @@
     </row>
     <row r="9" spans="1:27" s="10" customFormat="1">
       <c r="A9" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
@@ -15899,10 +15899,10 @@
     </row>
     <row r="10" spans="1:27" s="10" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -15914,10 +15914,10 @@
     </row>
     <row r="11" spans="1:27" s="10" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -15929,10 +15929,10 @@
     </row>
     <row r="12" spans="1:27" s="10" customFormat="1">
       <c r="A12" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
@@ -15944,10 +15944,10 @@
     </row>
     <row r="13" spans="1:27" s="10" customFormat="1">
       <c r="A13" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
@@ -15959,10 +15959,10 @@
     </row>
     <row r="14" spans="1:27" s="10" customFormat="1">
       <c r="A14" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>810</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>811</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -15974,10 +15974,10 @@
     </row>
     <row r="15" spans="1:27" s="10" customFormat="1">
       <c r="A15" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="N15" s="6"/>
       <c r="P15" s="6"/>
@@ -15985,10 +15985,10 @@
     </row>
     <row r="16" spans="1:27" s="10" customFormat="1">
       <c r="A16" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N16" s="6"/>
       <c r="P16" s="6"/>
@@ -16008,10 +16008,10 @@
     </row>
     <row r="19" spans="1:27" s="10" customFormat="1">
       <c r="A19" s="62" t="s">
+        <v>812</v>
+      </c>
+      <c r="B19" s="62" t="s">
         <v>813</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>814</v>
       </c>
       <c r="N19" s="6"/>
       <c r="P19" s="6"/>
@@ -16105,12 +16105,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -16118,12 +16118,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -16160,10 +16160,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>817</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>818</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="41"/>
@@ -16181,7 +16181,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -16196,7 +16196,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
@@ -16211,7 +16211,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
@@ -16226,7 +16226,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -16241,7 +16241,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -16256,7 +16256,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
@@ -16271,7 +16271,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
@@ -16286,7 +16286,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -16301,7 +16301,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="N15" s="6"/>
       <c r="P15" s="6"/>
@@ -16312,7 +16312,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="N16" s="6"/>
       <c r="P16" s="6"/>
@@ -16332,10 +16332,10 @@
     </row>
     <row r="19" spans="1:27" s="10" customFormat="1">
       <c r="A19" s="62" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N19" s="6"/>
       <c r="P19" s="6"/>
@@ -16406,12 +16406,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -16420,10 +16420,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>358</v>
       </c>
@@ -16442,10 +16442,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="73" t="s">
-        <v>626</v>
-      </c>
-      <c r="B6" s="73"/>
+      <c r="A6" s="75" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" s="75"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>295</v>
@@ -16605,23 +16605,23 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="74" t="s">
-        <v>880</v>
-      </c>
-      <c r="B19" s="74"/>
+      <c r="A19" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="B19" s="76"/>
       <c r="C19" s="36"/>
       <c r="D19" s="77" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="36"/>
       <c r="D20" s="78"/>
       <c r="E20" s="59"/>
@@ -16629,8 +16629,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="36"/>
       <c r="D21" s="79"/>
       <c r="E21" s="59"/>
@@ -16694,23 +16694,23 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="11"/>
@@ -16736,22 +16736,22 @@
     </row>
     <row r="6" spans="1:32" ht="24" customHeight="1">
       <c r="A6" s="47" t="s">
+        <v>931</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>932</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="C6" s="47" t="s">
         <v>933</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="D6" s="47" t="s">
         <v>934</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="E6" s="47" t="s">
         <v>935</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="F6" s="47" t="s">
         <v>936</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>937</v>
       </c>
       <c r="G6" s="50"/>
     </row>
@@ -16760,13 +16760,13 @@
         <v>28</v>
       </c>
       <c r="B7" s="49" t="s">
+        <v>937</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>938</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="D7" s="49" t="s">
         <v>939</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>940</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>2</v>
@@ -16781,13 +16781,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C8" s="46" t="s">
+        <v>938</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>939</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>940</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>2</v>
@@ -16802,13 +16802,13 @@
         <v>30</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C9" s="46" t="s">
+        <v>938</v>
+      </c>
+      <c r="D9" s="46" t="s">
         <v>939</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>940</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>2</v>
@@ -16820,16 +16820,16 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="46" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C10" s="46" t="s">
+        <v>938</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>939</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>940</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>2</v>
@@ -16841,16 +16841,16 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="46" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C11" s="46" t="s">
+        <v>938</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>939</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>940</v>
       </c>
       <c r="E11" s="46" t="s">
         <v>2</v>
@@ -16862,16 +16862,16 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="46" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C12" s="46" t="s">
+        <v>938</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>939</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>940</v>
       </c>
       <c r="E12" s="46" t="s">
         <v>2</v>
@@ -16883,16 +16883,16 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="46" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>945</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>946</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="46" t="s">
         <v>947</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>948</v>
       </c>
       <c r="E13" s="46" t="s">
         <v>2</v>
@@ -16904,16 +16904,16 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="46" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C14" s="46" t="s">
+        <v>938</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>939</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>940</v>
       </c>
       <c r="E14" s="46" t="s">
         <v>2</v>
@@ -16928,13 +16928,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="46" t="s">
+        <v>949</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>950</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="D15" s="46" t="s">
         <v>951</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>952</v>
       </c>
       <c r="E15" s="46" t="s">
         <v>1</v>
@@ -16946,16 +16946,16 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="46" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C16" s="46" t="s">
+        <v>950</v>
+      </c>
+      <c r="D16" s="46" t="s">
         <v>951</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>952</v>
       </c>
       <c r="E16" s="46" t="s">
         <v>1</v>
@@ -16966,98 +16966,98 @@
       <c r="G16" s="50"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="55" t="s">
+        <v>960</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="54" t="s">
         <v>961</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="53" t="s">
+      <c r="B21" s="54" t="s">
         <v>962</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="C21" s="54" t="s">
         <v>963</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="D21" s="54" t="s">
         <v>964</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="E21" s="54" t="s">
         <v>965</v>
       </c>
-      <c r="E21" s="53" t="s">
-        <v>966</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>970</v>
+      <c r="F21" s="54" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="29" spans="1:6">
       <c r="E29" s="51" t="s">
@@ -17069,271 +17069,271 @@
     </row>
     <row r="30" spans="1:6">
       <c r="E30" s="52" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="E31" s="52" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="E32" s="52" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="51" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="51" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" s="51" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="36" spans="6:6">
       <c r="F36" s="51" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" s="51" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" s="51" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" s="51" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" s="51" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" s="51" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" s="51" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" s="51" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" s="51" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" s="51" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="51" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" s="51" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="51" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" s="51" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="51" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="51" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" s="51" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="51" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="51" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" s="51" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="51" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" s="51" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" s="51" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" s="51" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" s="51" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" s="51" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" s="51" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="51" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" s="51" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" s="51" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="51" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="51" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" s="51" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="51" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="51" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="51" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="51" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" s="51" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" s="51" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" s="51" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" s="51" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" s="51" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" s="51" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" s="51" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" s="51" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="51" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
@@ -17406,12 +17406,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -17419,12 +17419,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -17447,16 +17447,16 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>835</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>836</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>193</v>
@@ -17470,13 +17470,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -17493,7 +17493,7 @@
         <v>183</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -17510,7 +17510,7 @@
         <v>71</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -17527,7 +17527,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -17544,7 +17544,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -17561,7 +17561,7 @@
         <v>183</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -17578,7 +17578,7 @@
         <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -17595,7 +17595,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -17612,7 +17612,7 @@
         <v>183</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -17629,15 +17629,15 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="11.25" customHeight="1">
       <c r="A19" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="B19" s="59" t="s">
         <v>841</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>842</v>
       </c>
       <c r="C19" s="59" t="s">
         <v>274</v>
@@ -17712,10 +17712,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
         <v>294</v>
       </c>
@@ -17728,10 +17728,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>297</v>
       </c>
@@ -17923,10 +17923,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
         <v>299</v>
       </c>
@@ -17938,10 +17938,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>320</v>
       </c>
@@ -18822,10 +18822,10 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
         <v>322</v>
       </c>
@@ -18835,10 +18835,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>326</v>
       </c>
@@ -19023,10 +19023,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
         <v>322</v>
       </c>
@@ -19055,10 +19055,10 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>350</v>
       </c>
@@ -19450,10 +19450,10 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
         <v>355</v>
       </c>
@@ -19463,10 +19463,10 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>356</v>
       </c>
@@ -19696,12 +19696,12 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -19711,10 +19711,10 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>363</v>
       </c>

--- a/Documentação/Planilhas/Conferencia_DOM_SD.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM_SD.xlsx
@@ -3684,20 +3684,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3717,65 +3742,32 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3804,21 +3796,29 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5086,20 +5086,20 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>712</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>383</v>
       </c>
@@ -5149,10 +5149,10 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="68" t="s">
         <v>384</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="68" t="s">
         <v>249</v>
       </c>
       <c r="G11" s="2"/>
@@ -5160,15 +5160,15 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
       <c r="G12" s="2"/>
       <c r="I12" s="2"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
       <c r="T13" s="2"/>
@@ -5339,75 +5339,70 @@
     </row>
     <row r="42" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C42" s="6"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
       <c r="J42" s="2"/>
       <c r="L42" s="2"/>
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C43" s="6"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
       <c r="J43" s="2"/>
       <c r="L43" s="2"/>
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C44" s="6"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
       <c r="J44" s="2"/>
       <c r="L44" s="2"/>
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C45" s="6"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
       <c r="J45" s="2"/>
       <c r="L45" s="2"/>
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C46" s="6"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
       <c r="J46" s="2"/>
       <c r="L46" s="2"/>
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C47" s="6"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
       <c r="J47" s="2"/>
       <c r="L47" s="2"/>
       <c r="W47" s="2"/>
     </row>
     <row r="48" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C48" s="6"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
       <c r="J48" s="2"/>
       <c r="L48" s="2"/>
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C49" s="6"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
       <c r="J49" s="2"/>
       <c r="L49" s="2"/>
       <c r="W49" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D42:E42"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
@@ -5415,6 +5410,11 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5454,10 +5454,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>713</v>
       </c>
@@ -5471,10 +5471,10 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -5630,10 +5630,10 @@
     <row r="16" spans="1:32">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="71" t="s">
         <v>335</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="71" t="s">
         <v>336</v>
       </c>
       <c r="F16" s="21"/>
@@ -5644,8 +5644,8 @@
     </row>
     <row r="17" spans="1:10">
       <c r="B17" s="6"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -5654,8 +5654,8 @@
     </row>
     <row r="18" spans="1:10">
       <c r="B18" s="6"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -5663,10 +5663,10 @@
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="71" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="71"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="20"/>
@@ -5676,8 +5676,8 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="20"/>
@@ -5687,8 +5687,8 @@
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -5696,12 +5696,12 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5759,20 +5759,20 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>714</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>404</v>
       </c>
@@ -6129,37 +6129,37 @@
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="54" t="s">
         <v>930</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="54" t="s">
         <v>931</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="55" t="s">
         <v>932</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="55" t="s">
         <v>933</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="56" t="s">
         <v>934</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="56" t="s">
         <v>935</v>
       </c>
-      <c r="J14" s="81" t="s">
+      <c r="J14" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="81" t="s">
+      <c r="K14" s="54" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="2"/>
@@ -6276,135 +6276,135 @@
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="72" t="s">
         <v>885</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="63" t="s">
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="63" t="s">
+      <c r="J19" s="74"/>
+      <c r="K19" s="72" t="s">
         <v>408</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="64"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="75"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="65"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="65"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="78"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="68" t="s">
         <v>397</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="68" t="s">
         <v>432</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="68" t="s">
         <v>398</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="68" t="s">
         <v>399</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="68" t="s">
         <v>400</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="68" t="s">
         <v>401</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="68" t="s">
         <v>402</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="68" t="s">
         <v>403</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="68" t="s">
         <v>406</v>
       </c>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="68" t="s">
         <v>407</v>
       </c>
-      <c r="K22" s="59" t="s">
+      <c r="K22" s="68" t="s">
         <v>434</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
@@ -6463,7 +6463,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="80" t="s">
+      <c r="F29" s="53" t="s">
         <v>886</v>
       </c>
       <c r="G29" s="8"/>
@@ -6565,22 +6565,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="A19:H21"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6595,7 +6595,7 @@
   <dimension ref="A1:AK165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A19" sqref="A19:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6629,20 +6629,20 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>715</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>433</v>
       </c>
@@ -6727,31 +6727,31 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="1" customFormat="1">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="54" t="s">
         <v>199</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="54" t="s">
         <v>199</v>
       </c>
       <c r="D7" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="54" t="s">
         <v>206</v>
       </c>
       <c r="J7" s="49" t="s">
@@ -6769,13 +6769,13 @@
       <c r="N7" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="59" t="s">
         <v>1009</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="59" t="s">
         <v>1009</v>
       </c>
-      <c r="Q7" s="96" t="s">
+      <c r="Q7" s="60" t="s">
         <v>195</v>
       </c>
       <c r="R7" s="2"/>
@@ -6783,13 +6783,13 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="1" customFormat="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="54" t="s">
         <v>199</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="54" t="s">
         <v>424</v>
       </c>
       <c r="D8" s="49" t="s">
@@ -6839,13 +6839,13 @@
       <c r="AE8" s="2"/>
     </row>
     <row r="9" spans="1:31" s="1" customFormat="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="54" t="s">
         <v>199</v>
       </c>
       <c r="B9" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="54" t="s">
         <v>1002</v>
       </c>
       <c r="D9" s="49" t="s">
@@ -7119,31 +7119,31 @@
       <c r="AE13" s="2"/>
     </row>
     <row r="14" spans="1:31" s="1" customFormat="1">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="54" t="s">
         <v>930</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="54" t="s">
         <v>936</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="54" t="s">
         <v>931</v>
       </c>
-      <c r="F14" s="82" t="s">
+      <c r="F14" s="55" t="s">
         <v>981</v>
       </c>
-      <c r="G14" s="81" t="s">
+      <c r="G14" s="54" t="s">
         <v>982</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="54" t="s">
         <v>983</v>
       </c>
-      <c r="I14" s="81" t="s">
+      <c r="I14" s="54" t="s">
         <v>421</v>
       </c>
       <c r="J14" s="49" t="s">
@@ -7308,283 +7308,283 @@
       <c r="AK18" s="2"/>
     </row>
     <row r="19" spans="1:37" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="82" t="s">
         <v>1000</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="86"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="84"/>
       <c r="X19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AK19" s="2"/>
     </row>
     <row r="20" spans="1:37" ht="11.25" customHeight="1">
-      <c r="A20" s="87"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="89"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="87"/>
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="11.25" customHeight="1">
-      <c r="A21" s="90"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="90"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="11.25" customHeight="1">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="68" t="s">
         <v>403</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="68" t="s">
         <v>1013</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="81" t="s">
         <v>1014</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="81" t="s">
         <v>1015</v>
       </c>
-      <c r="F22" s="97" t="s">
+      <c r="F22" s="81" t="s">
         <v>1016</v>
       </c>
-      <c r="G22" s="97" t="s">
+      <c r="G22" s="81" t="s">
         <v>1017</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="81" t="s">
         <v>1018</v>
       </c>
-      <c r="I22" s="97" t="s">
+      <c r="I22" s="81" t="s">
         <v>1019</v>
       </c>
-      <c r="J22" s="97" t="s">
+      <c r="J22" s="81" t="s">
         <v>1020</v>
       </c>
-      <c r="K22" s="97" t="s">
+      <c r="K22" s="81" t="s">
         <v>1021</v>
       </c>
-      <c r="L22" s="97" t="s">
+      <c r="L22" s="81" t="s">
         <v>1022</v>
       </c>
-      <c r="M22" s="97" t="s">
+      <c r="M22" s="81" t="s">
         <v>435</v>
       </c>
-      <c r="N22" s="97" t="s">
+      <c r="N22" s="81" t="s">
         <v>1023</v>
       </c>
-      <c r="O22" s="97" t="s">
+      <c r="O22" s="81" t="s">
         <v>1024</v>
       </c>
-      <c r="P22" s="97" t="s">
+      <c r="P22" s="81" t="s">
         <v>1025</v>
       </c>
-      <c r="Q22" s="97" t="s">
+      <c r="Q22" s="81" t="s">
         <v>1026</v>
       </c>
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="11.25" customHeight="1">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="97"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="33" customHeight="1">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="80" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="53" t="s">
         <v>1008</v>
       </c>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="97"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:37">
@@ -7604,7 +7604,7 @@
     </row>
     <row r="32" spans="1:37">
       <c r="A32" s="34"/>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="57" t="s">
         <v>178</v>
       </c>
       <c r="C32" s="34"/>
@@ -7621,7 +7621,7 @@
     </row>
     <row r="33" spans="1:18" ht="33.75">
       <c r="A33" s="34"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="58" t="s">
         <v>436</v>
       </c>
       <c r="C33" s="34"/>
@@ -9618,6 +9618,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L22:L30"/>
+    <mergeCell ref="N22:N30"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="O22:O30"/>
     <mergeCell ref="P22:P30"/>
     <mergeCell ref="Q22:Q30"/>
@@ -9634,10 +9638,6 @@
     <mergeCell ref="J22:J30"/>
     <mergeCell ref="K22:K30"/>
     <mergeCell ref="M22:M28"/>
-    <mergeCell ref="L22:L30"/>
-    <mergeCell ref="N22:N30"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9684,10 +9684,10 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>716</v>
       </c>
@@ -9696,10 +9696,10 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -9812,59 +9812,59 @@
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1">
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="68" t="s">
         <v>438</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="68" t="s">
         <v>439</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="71" t="s">
         <v>741</v>
       </c>
-      <c r="B17" s="62"/>
+      <c r="B17" s="71"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
       <c r="D18" s="35"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -9922,10 +9922,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>717</v>
       </c>
@@ -9934,10 +9934,10 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>442</v>
       </c>
@@ -10006,21 +10006,21 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="68" t="s">
         <v>443</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="68" t="s">
         <v>444</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10066,10 +10066,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>718</v>
       </c>
@@ -10077,10 +10077,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -10122,10 +10122,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="93" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="93"/>
       <c r="D6" s="26" t="s">
         <v>448</v>
       </c>
@@ -10218,36 +10218,36 @@
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="91" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="75"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="92"/>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:6">
@@ -10264,10 +10264,10 @@
       <c r="F23" s="38"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="93" t="s">
         <v>453</v>
       </c>
-      <c r="B25" s="72"/>
+      <c r="B25" s="93"/>
       <c r="D25" s="26" t="s">
         <v>448</v>
       </c>
@@ -10367,36 +10367,36 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F36" s="74" t="s">
+      <c r="F36" s="91" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="75"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="92"/>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B38" s="73"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="36"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="36"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="36"/>
     </row>
     <row r="41" spans="1:6">
@@ -10406,6 +10406,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A38:B40"/>
@@ -10413,11 +10418,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10455,10 +10455,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>719</v>
       </c>
@@ -10466,10 +10466,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -10511,10 +10511,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="93" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="93"/>
       <c r="D6" s="26" t="s">
         <v>461</v>
       </c>
@@ -10614,32 +10614,32 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="91" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="75"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="92"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:6">
@@ -10656,10 +10656,10 @@
       <c r="F23" s="38"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="93" t="s">
         <v>459</v>
       </c>
-      <c r="B25" s="72"/>
+      <c r="B25" s="93"/>
       <c r="D25" s="26" t="s">
         <v>461</v>
       </c>
@@ -10770,32 +10770,32 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B38" s="73"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F38" s="74" t="s">
+      <c r="F38" s="91" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="36"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="75"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="92"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="36"/>
     </row>
     <row r="41" spans="1:6">
@@ -10805,18 +10805,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A19:B21"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A38:B40"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A19:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10859,10 +10859,10 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>720</v>
       </c>
@@ -10875,10 +10875,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -10892,10 +10892,10 @@
       <c r="L3" s="11"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="93" t="s">
         <v>472</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="12"/>
       <c r="D6" s="26" t="s">
         <v>469</v>
@@ -11071,34 +11071,34 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="91" t="s">
         <v>471</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="75"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="92"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="36"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -11133,10 +11133,10 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="93" t="s">
         <v>473</v>
       </c>
-      <c r="B25" s="72"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="12"/>
       <c r="D25" s="26" t="s">
         <v>469</v>
@@ -11318,34 +11318,34 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B38" s="73"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F38" s="74" t="s">
+      <c r="F38" s="91" t="s">
         <v>474</v>
       </c>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="36"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="75"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="36"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -11409,10 +11409,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>721</v>
       </c>
@@ -11424,10 +11424,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -11447,10 +11447,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="93" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="12"/>
       <c r="D6" s="26" t="s">
         <v>477</v>
@@ -11609,36 +11609,36 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="91" t="s">
         <v>458</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="75"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="92"/>
       <c r="G20" s="11"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="36"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -11677,10 +11677,10 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="93" t="s">
         <v>476</v>
       </c>
-      <c r="B25" s="72"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="12"/>
       <c r="D25" s="26" t="s">
         <v>477</v>
@@ -11869,36 +11869,36 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B38" s="73"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F38" s="74" t="s">
+      <c r="F38" s="91" t="s">
         <v>475</v>
       </c>
       <c r="G38" s="11"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="36"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="75"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="11"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="36"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -11933,6 +11933,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A19:B21"/>
@@ -11940,11 +11945,6 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11988,10 +11988,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>758</v>
       </c>
@@ -11999,10 +11999,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
@@ -12390,158 +12390,152 @@
       <c r="K16" s="1"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="64" t="s">
         <v>781</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="54" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65" t="s">
         <v>785</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="J18" s="55" t="s">
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="J18" s="66" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="J19" s="55"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="J20" s="55"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="J20" s="66"/>
     </row>
     <row r="21" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="63" t="s">
         <v>782</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="63" t="s">
         <v>783</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="63" t="s">
         <v>784</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="63" t="s">
         <v>786</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="63" t="s">
         <v>790</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="63" t="s">
         <v>787</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="63" t="s">
         <v>788</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="63" t="s">
         <v>789</v>
       </c>
-      <c r="J21" s="53" t="s">
+      <c r="J21" s="63" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="J22" s="53"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="J23" s="53"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="J24" s="53"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="J25" s="53"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="J26" s="53"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="J27" s="53"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="J28" s="53"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="J28" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="A18:C20"/>
     <mergeCell ref="J21:J28"/>
     <mergeCell ref="D18:H20"/>
     <mergeCell ref="J18:J20"/>
@@ -12550,6 +12544,12 @@
     <mergeCell ref="G21:G28"/>
     <mergeCell ref="H21:H28"/>
     <mergeCell ref="E21:E28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="A18:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12585,10 +12585,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>722</v>
       </c>
@@ -12600,10 +12600,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -12623,10 +12623,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="93" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="12"/>
       <c r="D6" s="15" t="s">
         <v>250</v>
@@ -12785,40 +12785,40 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="68" t="s">
         <v>492</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="68" t="s">
         <v>493</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="11"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="11"/>
       <c r="L21" s="2"/>
     </row>
@@ -12877,10 +12877,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>723</v>
       </c>
@@ -12892,10 +12892,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -12915,10 +12915,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="93" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="12"/>
       <c r="D6" s="15" t="s">
         <v>494</v>
@@ -13063,35 +13063,35 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="68" t="s">
         <v>505</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="68" t="s">
         <v>506</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
       <c r="G20" s="11"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
       <c r="G21" s="11"/>
       <c r="L21" s="2"/>
     </row>
@@ -13099,8 +13099,8 @@
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="L22" s="2"/>
@@ -13176,10 +13176,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>724</v>
       </c>
@@ -13191,10 +13191,10 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>523</v>
       </c>
@@ -13362,20 +13362,20 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="71" t="s">
         <v>524</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="71" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13447,10 +13447,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>725</v>
       </c>
@@ -13464,10 +13464,10 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>548</v>
       </c>
@@ -13700,10 +13700,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>726</v>
       </c>
@@ -13717,10 +13717,10 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>570</v>
       </c>
@@ -13991,30 +13991,30 @@
       <c r="AE16" s="1"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="68" t="s">
         <v>571</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="68" t="s">
         <v>572</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="68" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="68" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14058,10 +14058,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>727</v>
       </c>
@@ -14072,10 +14072,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -14094,10 +14094,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="93" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>583</v>
@@ -14253,35 +14253,35 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="95" t="s">
         <v>446</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="68" t="s">
         <v>586</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="59"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="11"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="11"/>
       <c r="K21" s="2"/>
     </row>
@@ -14365,10 +14365,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>728</v>
       </c>
@@ -14382,10 +14382,10 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>884</v>
       </c>
@@ -14617,20 +14617,20 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="68" t="s">
         <v>604</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="68" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14678,10 +14678,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>729</v>
       </c>
@@ -14694,10 +14694,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>612</v>
       </c>
@@ -14864,30 +14864,30 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="11.25" customHeight="1">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="68" t="s">
         <v>611</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="68" t="s">
         <v>613</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="68" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8"/>
@@ -14976,10 +14976,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>730</v>
       </c>
@@ -14990,10 +14990,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -15012,10 +15012,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="93" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>625</v>
@@ -15175,35 +15175,35 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="95" t="s">
         <v>446</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="68" t="s">
         <v>586</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="59"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="11"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="11"/>
       <c r="K21" s="2"/>
     </row>
@@ -15289,10 +15289,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>731</v>
       </c>
@@ -15307,10 +15307,10 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>634</v>
       </c>
@@ -15544,25 +15544,25 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="68" t="s">
         <v>571</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="68" t="s">
         <v>635</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="68" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -15610,10 +15610,10 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>226</v>
       </c>
@@ -15622,10 +15622,10 @@
       <c r="AE2" s="2"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>245</v>
       </c>
@@ -16548,10 +16548,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>732</v>
       </c>
@@ -16564,10 +16564,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>639</v>
       </c>
@@ -16806,10 +16806,10 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="68" t="s">
         <v>637</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="68" t="s">
         <v>638</v>
       </c>
       <c r="F15" s="1"/>
@@ -16820,8 +16820,8 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -16830,8 +16830,8 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -16917,10 +16917,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>733</v>
       </c>
@@ -16934,10 +16934,10 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>644</v>
       </c>
@@ -17252,19 +17252,19 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="68" t="s">
         <v>571</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="68" t="s">
         <v>635</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="68" t="s">
         <v>645</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="68" t="s">
         <v>646</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="68" t="s">
         <v>574</v>
       </c>
       <c r="F18" s="1"/>
@@ -17276,11 +17276,11 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -17290,11 +17290,11 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -17368,10 +17368,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>734</v>
       </c>
@@ -17385,10 +17385,10 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>634</v>
       </c>
@@ -17443,10 +17443,10 @@
         <v>649</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="71" t="s">
         <v>651</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="7"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -17465,8 +17465,8 @@
       <c r="B7" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -17482,8 +17482,8 @@
       <c r="B8" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -17499,8 +17499,8 @@
       <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -17516,8 +17516,8 @@
       <c r="B10" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -17533,8 +17533,8 @@
       <c r="B11" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -17562,10 +17562,10 @@
       <c r="AG13" s="6"/>
     </row>
     <row r="14" spans="1:33" s="6" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="68" t="s">
         <v>635</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="68" t="s">
         <v>574</v>
       </c>
       <c r="C14" s="8"/>
@@ -17595,8 +17595,8 @@
       <c r="AF14" s="10"/>
     </row>
     <row r="15" spans="1:33" s="10" customFormat="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="8"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -17607,8 +17607,8 @@
       <c r="AG15" s="6"/>
     </row>
     <row r="16" spans="1:33" s="10" customFormat="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="8"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -17875,10 +17875,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>735</v>
       </c>
@@ -17888,10 +17888,10 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>673</v>
       </c>
@@ -17919,8 +17919,8 @@
       <c r="B5" s="2"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
@@ -18101,10 +18101,10 @@
       <c r="AA18" s="6"/>
     </row>
     <row r="19" spans="1:27" s="10" customFormat="1">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="71" t="s">
         <v>674</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="71" t="s">
         <v>675</v>
       </c>
       <c r="N19" s="6"/>
@@ -18112,15 +18112,15 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" s="10" customFormat="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
       <c r="N20" s="6"/>
       <c r="P20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="1:27" s="10" customFormat="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
       <c r="N21" s="6"/>
       <c r="P21" s="6"/>
       <c r="AA21" s="6"/>
@@ -18199,10 +18199,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>736</v>
       </c>
@@ -18212,10 +18212,10 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>690</v>
       </c>
@@ -18243,8 +18243,8 @@
       <c r="B5" s="2"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
@@ -18425,10 +18425,10 @@
       <c r="AA18" s="6"/>
     </row>
     <row r="19" spans="1:27" s="10" customFormat="1">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="71" t="s">
         <v>691</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="71" t="s">
         <v>676</v>
       </c>
       <c r="N19" s="6"/>
@@ -18436,15 +18436,15 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" s="10" customFormat="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
       <c r="N20" s="6"/>
       <c r="P20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="1:27" s="10" customFormat="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
       <c r="N21" s="6"/>
       <c r="P21" s="6"/>
       <c r="AA21" s="6"/>
@@ -18500,10 +18500,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>737</v>
       </c>
@@ -18514,10 +18514,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -18536,10 +18536,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="93" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>270</v>
@@ -18699,35 +18699,35 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="95" t="s">
         <v>446</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="68" t="s">
         <v>586</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="59"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="11"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="11"/>
       <c r="K21" s="2"/>
     </row>
@@ -18788,10 +18788,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>757</v>
       </c>
@@ -18799,10 +18799,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>821</v>
       </c>
@@ -19060,98 +19060,98 @@
       <c r="G16" s="50"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="64" t="s">
         <v>822</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="63" t="s">
         <v>823</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="63" t="s">
         <v>824</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="63" t="s">
         <v>825</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="63" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
     </row>
     <row r="29" spans="1:6">
       <c r="E29" s="51" t="s">
@@ -19500,10 +19500,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>738</v>
       </c>
@@ -19513,10 +19513,10 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>701</v>
       </c>
@@ -19727,35 +19727,35 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="68" t="s">
         <v>702</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="68" t="s">
         <v>703</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="68" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -19974,10 +19974,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>269</v>
       </c>
@@ -19990,10 +19990,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>272</v>
       </c>
@@ -20013,8 +20013,8 @@
         <v>271</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="1:32" ht="11.25" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -20127,18 +20127,18 @@
       <c r="E16" s="7"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="68"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -20185,10 +20185,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>274</v>
       </c>
@@ -20200,10 +20200,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>295</v>
       </c>
@@ -20664,15 +20664,15 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:29" ht="11.25" customHeight="1">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="69" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60" t="s">
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="69" t="s">
         <v>375</v>
       </c>
       <c r="G23" s="1"/>
@@ -20682,11 +20682,11 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="11.25" customHeight="1">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -20695,11 +20695,11 @@
     </row>
     <row r="25" spans="1:29" ht="11.25" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -20707,19 +20707,19 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:29" ht="11.25" customHeight="1">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="68" t="s">
         <v>294</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="68" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="68" t="s">
         <v>296</v>
       </c>
       <c r="G26" s="1"/>
@@ -20729,11 +20729,11 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:29" s="2" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -20759,11 +20759,11 @@
       <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="1:29" s="2" customFormat="1">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -20789,11 +20789,11 @@
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="1:29" s="2" customFormat="1">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -20819,11 +20819,11 @@
       <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="1:29" s="2" customFormat="1">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -20849,11 +20849,11 @@
       <c r="AC30" s="1"/>
     </row>
     <row r="31" spans="1:29" s="2" customFormat="1">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -21084,10 +21084,10 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>297</v>
       </c>
@@ -21097,10 +21097,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>301</v>
       </c>
@@ -21211,20 +21211,20 @@
       <c r="B17" s="9"/>
     </row>
     <row r="19" spans="1:2" ht="11.25" customHeight="1">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="68" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -21285,10 +21285,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>297</v>
       </c>
@@ -21317,10 +21317,10 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>325</v>
       </c>
@@ -21511,13 +21511,13 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="68" t="s">
         <v>328</v>
       </c>
       <c r="D18" s="1"/>
@@ -21548,9 +21548,9 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -21579,9 +21579,9 @@
       <c r="AC19" s="1"/>
     </row>
     <row r="20" spans="1:29">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -21712,10 +21712,10 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>330</v>
       </c>
@@ -21725,10 +21725,10 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>331</v>
       </c>
@@ -21864,24 +21864,24 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="68" t="s">
         <v>332</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="68"/>
       <c r="E18" s="4"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
       <c r="E19" s="4"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
       <c r="E20" s="4"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -21958,10 +21958,10 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="3" t="s">
         <v>711</v>
       </c>
@@ -21973,10 +21973,10 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>338</v>
       </c>
@@ -22208,56 +22208,56 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="68" t="s">
         <v>367</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="68" t="s">
         <v>369</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="68" t="s">
         <v>370</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="68" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Documentação/Planilhas/Conferencia_DOM_SD.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM_SD.xlsx
@@ -3709,20 +3709,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3742,28 +3742,28 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3796,17 +3796,17 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5086,20 +5086,20 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>712</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>383</v>
       </c>
@@ -5403,6 +5403,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
@@ -5410,11 +5415,6 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5454,10 +5454,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>713</v>
       </c>
@@ -5471,10 +5471,10 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -5759,20 +5759,20 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>714</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>404</v>
       </c>
@@ -6279,17 +6279,17 @@
       <c r="A19" s="72" t="s">
         <v>885</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="J19" s="74"/>
+      <c r="J19" s="75"/>
       <c r="K19" s="72" t="s">
         <v>408</v>
       </c>
@@ -6297,32 +6297,32 @@
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="75"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="73"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="78"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="74"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
@@ -6565,22 +6565,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="A19:H21"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6595,7 +6595,7 @@
   <dimension ref="A1:AK165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:Q21"/>
+      <selection activeCell="C22" sqref="C22:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6629,20 +6629,20 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>715</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>433</v>
       </c>
@@ -9618,11 +9618,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L22:L30"/>
-    <mergeCell ref="N22:N30"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="O22:O30"/>
     <mergeCell ref="P22:P30"/>
     <mergeCell ref="Q22:Q30"/>
     <mergeCell ref="A19:Q21"/>
@@ -9638,6 +9633,11 @@
     <mergeCell ref="J22:J30"/>
     <mergeCell ref="K22:K30"/>
     <mergeCell ref="M22:M28"/>
+    <mergeCell ref="L22:L30"/>
+    <mergeCell ref="N22:N30"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="O22:O30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9684,10 +9684,10 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>716</v>
       </c>
@@ -9696,10 +9696,10 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -9922,10 +9922,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>717</v>
       </c>
@@ -9934,10 +9934,10 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>442</v>
       </c>
@@ -10066,10 +10066,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>718</v>
       </c>
@@ -10077,10 +10077,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -10122,10 +10122,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="91" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="D6" s="26" t="s">
         <v>448</v>
       </c>
@@ -10224,30 +10224,30 @@
       <c r="E15" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F15" s="91" t="s">
+      <c r="F15" s="93" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="92"/>
+      <c r="F16" s="94"/>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:6">
@@ -10264,10 +10264,10 @@
       <c r="F23" s="38"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="B25" s="93"/>
+      <c r="B25" s="91"/>
       <c r="D25" s="26" t="s">
         <v>448</v>
       </c>
@@ -10373,30 +10373,30 @@
       <c r="E36" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F36" s="91" t="s">
+      <c r="F36" s="93" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="92"/>
+      <c r="F37" s="94"/>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="B38" s="94"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="36"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="36"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="36"/>
     </row>
     <row r="41" spans="1:6">
@@ -10406,11 +10406,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="D15:D16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A38:B40"/>
@@ -10418,6 +10413,11 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10455,10 +10455,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>719</v>
       </c>
@@ -10466,10 +10466,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -10511,10 +10511,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="D6" s="26" t="s">
         <v>461</v>
       </c>
@@ -10614,10 +10614,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="36"/>
       <c r="D19" s="68" t="s">
         <v>335</v>
@@ -10625,21 +10625,21 @@
       <c r="E19" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="93" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="36"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="92"/>
+      <c r="F20" s="94"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:6">
@@ -10656,10 +10656,10 @@
       <c r="F23" s="38"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="91" t="s">
         <v>459</v>
       </c>
-      <c r="B25" s="93"/>
+      <c r="B25" s="91"/>
       <c r="D25" s="26" t="s">
         <v>461</v>
       </c>
@@ -10770,10 +10770,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="B38" s="94"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="36"/>
       <c r="D38" s="68" t="s">
         <v>335</v>
@@ -10781,21 +10781,21 @@
       <c r="E38" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F38" s="91" t="s">
+      <c r="F38" s="93" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="36"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="92"/>
+      <c r="F39" s="94"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="36"/>
     </row>
     <row r="41" spans="1:6">
@@ -10805,18 +10805,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A38:B40"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="A19:B21"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A38:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10859,10 +10859,10 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>720</v>
       </c>
@@ -10875,10 +10875,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -10892,10 +10892,10 @@
       <c r="L3" s="11"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="91" t="s">
         <v>472</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="12"/>
       <c r="D6" s="26" t="s">
         <v>469</v>
@@ -11071,10 +11071,10 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="36"/>
       <c r="D19" s="68" t="s">
         <v>335</v>
@@ -11082,23 +11082,23 @@
       <c r="E19" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="93" t="s">
         <v>471</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="36"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="92"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="36"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -11133,10 +11133,10 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="91" t="s">
         <v>473</v>
       </c>
-      <c r="B25" s="93"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="12"/>
       <c r="D25" s="26" t="s">
         <v>469</v>
@@ -11318,10 +11318,10 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="B38" s="94"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="36"/>
       <c r="D38" s="68" t="s">
         <v>335</v>
@@ -11329,23 +11329,23 @@
       <c r="E38" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F38" s="91" t="s">
+      <c r="F38" s="93" t="s">
         <v>474</v>
       </c>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="36"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="92"/>
+      <c r="F39" s="94"/>
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="36"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -11409,10 +11409,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>721</v>
       </c>
@@ -11424,10 +11424,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -11447,10 +11447,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="12"/>
       <c r="D6" s="26" t="s">
         <v>477</v>
@@ -11609,10 +11609,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="36"/>
       <c r="D19" s="68" t="s">
         <v>335</v>
@@ -11620,25 +11620,25 @@
       <c r="E19" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="93" t="s">
         <v>458</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="36"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="92"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="11"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="36"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -11677,10 +11677,10 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="91" t="s">
         <v>476</v>
       </c>
-      <c r="B25" s="93"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="12"/>
       <c r="D25" s="26" t="s">
         <v>477</v>
@@ -11869,10 +11869,10 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="B38" s="94"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="36"/>
       <c r="D38" s="68" t="s">
         <v>335</v>
@@ -11880,25 +11880,25 @@
       <c r="E38" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F38" s="91" t="s">
+      <c r="F38" s="93" t="s">
         <v>475</v>
       </c>
       <c r="G38" s="11"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="36"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="92"/>
+      <c r="F39" s="94"/>
       <c r="G39" s="11"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="36"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -11933,11 +11933,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A19:B21"/>
@@ -11945,6 +11940,11 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11988,10 +11988,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>758</v>
       </c>
@@ -11999,10 +11999,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
@@ -12390,152 +12390,158 @@
       <c r="K16" s="1"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="66" t="s">
         <v>781</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65" t="s">
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="63" t="s">
         <v>785</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="J18" s="66" t="s">
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="J18" s="64" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="J19" s="66"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="J20" s="66"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="62" t="s">
         <v>782</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>783</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="62" t="s">
         <v>784</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="62" t="s">
         <v>786</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="62" t="s">
         <v>790</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="62" t="s">
         <v>787</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="62" t="s">
         <v>788</v>
       </c>
-      <c r="H21" s="63" t="s">
+      <c r="H21" s="62" t="s">
         <v>789</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="62" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="J22" s="63"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="J22" s="62"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="J23" s="63"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="J23" s="62"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="J24" s="63"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="J24" s="62"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="J25" s="63"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="J25" s="62"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="J26" s="63"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="J26" s="62"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="J27" s="63"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="J27" s="62"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="J28" s="63"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="J28" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="A18:C20"/>
     <mergeCell ref="J21:J28"/>
     <mergeCell ref="D18:H20"/>
     <mergeCell ref="J18:J20"/>
@@ -12544,12 +12550,6 @@
     <mergeCell ref="G21:G28"/>
     <mergeCell ref="H21:H28"/>
     <mergeCell ref="E21:E28"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="A18:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12585,10 +12585,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>722</v>
       </c>
@@ -12600,10 +12600,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -12623,10 +12623,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="12"/>
       <c r="D6" s="15" t="s">
         <v>250</v>
@@ -12785,10 +12785,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="36"/>
       <c r="D19" s="68" t="s">
         <v>491</v>
@@ -12803,8 +12803,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="36"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -12813,8 +12813,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="36"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -12877,10 +12877,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>723</v>
       </c>
@@ -12892,10 +12892,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -12915,10 +12915,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="12"/>
       <c r="D6" s="15" t="s">
         <v>494</v>
@@ -13063,10 +13063,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="36"/>
       <c r="D19" s="68" t="s">
         <v>505</v>
@@ -13078,8 +13078,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="36"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -13087,8 +13087,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="36"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -13176,10 +13176,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>724</v>
       </c>
@@ -13191,10 +13191,10 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>523</v>
       </c>
@@ -13447,10 +13447,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>725</v>
       </c>
@@ -13464,10 +13464,10 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>548</v>
       </c>
@@ -13700,10 +13700,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>726</v>
       </c>
@@ -13717,10 +13717,10 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>570</v>
       </c>
@@ -14058,10 +14058,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>727</v>
       </c>
@@ -14072,10 +14072,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -14094,10 +14094,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>583</v>
@@ -14253,10 +14253,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="36"/>
       <c r="D19" s="95" t="s">
         <v>446</v>
@@ -14268,8 +14268,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="36"/>
       <c r="D20" s="96"/>
       <c r="E20" s="68"/>
@@ -14277,8 +14277,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="36"/>
       <c r="D21" s="97"/>
       <c r="E21" s="68"/>
@@ -14365,10 +14365,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>728</v>
       </c>
@@ -14382,10 +14382,10 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>884</v>
       </c>
@@ -14678,10 +14678,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>729</v>
       </c>
@@ -14694,10 +14694,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>612</v>
       </c>
@@ -14976,10 +14976,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>730</v>
       </c>
@@ -14990,10 +14990,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -15012,10 +15012,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>625</v>
@@ -15175,10 +15175,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="36"/>
       <c r="D19" s="95" t="s">
         <v>446</v>
@@ -15190,8 +15190,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="36"/>
       <c r="D20" s="96"/>
       <c r="E20" s="68"/>
@@ -15199,8 +15199,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="36"/>
       <c r="D21" s="97"/>
       <c r="E21" s="68"/>
@@ -15289,10 +15289,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>731</v>
       </c>
@@ -15307,10 +15307,10 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>634</v>
       </c>
@@ -15610,10 +15610,10 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>226</v>
       </c>
@@ -15622,10 +15622,10 @@
       <c r="AE2" s="2"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>245</v>
       </c>
@@ -16548,10 +16548,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>732</v>
       </c>
@@ -16564,10 +16564,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>639</v>
       </c>
@@ -16917,10 +16917,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>733</v>
       </c>
@@ -16934,10 +16934,10 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>644</v>
       </c>
@@ -17368,10 +17368,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>734</v>
       </c>
@@ -17385,10 +17385,10 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>634</v>
       </c>
@@ -17875,10 +17875,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>735</v>
       </c>
@@ -17888,10 +17888,10 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>673</v>
       </c>
@@ -18199,10 +18199,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>736</v>
       </c>
@@ -18212,10 +18212,10 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>690</v>
       </c>
@@ -18500,10 +18500,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>737</v>
       </c>
@@ -18514,10 +18514,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
@@ -18536,10 +18536,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>270</v>
@@ -18699,10 +18699,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="36"/>
       <c r="D19" s="95" t="s">
         <v>446</v>
@@ -18714,8 +18714,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="36"/>
       <c r="D20" s="96"/>
       <c r="E20" s="68"/>
@@ -18723,8 +18723,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="36"/>
       <c r="D21" s="97"/>
       <c r="E21" s="68"/>
@@ -18788,10 +18788,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>757</v>
       </c>
@@ -18799,10 +18799,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>821</v>
       </c>
@@ -19060,98 +19060,98 @@
       <c r="G16" s="50"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="66" t="s">
         <v>822</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="62" t="s">
         <v>823</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>824</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="62" t="s">
         <v>825</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="62" t="s">
         <v>826</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="62" t="s">
         <v>827</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="62" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="29" spans="1:6">
       <c r="E29" s="51" t="s">
@@ -19500,10 +19500,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>738</v>
       </c>
@@ -19513,10 +19513,10 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>701</v>
       </c>
@@ -19974,10 +19974,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>269</v>
       </c>
@@ -19990,10 +19990,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>272</v>
       </c>
@@ -20185,10 +20185,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>274</v>
       </c>
@@ -20200,10 +20200,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>295</v>
       </c>
@@ -21084,10 +21084,10 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>297</v>
       </c>
@@ -21097,10 +21097,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>301</v>
       </c>
@@ -21285,10 +21285,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>297</v>
       </c>
@@ -21317,10 +21317,10 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>325</v>
       </c>
@@ -21712,10 +21712,10 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>330</v>
       </c>
@@ -21725,10 +21725,10 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>331</v>
       </c>
@@ -21958,10 +21958,10 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="3" t="s">
         <v>711</v>
       </c>
@@ -21973,10 +21973,10 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="3" t="s">
         <v>338</v>
       </c>
